--- a/15_countries_compared.xlsx
+++ b/15_countries_compared.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aurez\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5F2D4298-2B2A-43DB-8E37-7AE5FCCD8900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A4D4DEAA-0365-4657-B47A-2FD6B77347F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23280" yWindow="1440" windowWidth="21735" windowHeight="13785"/>
+    <workbookView xWindow="-28755" yWindow="105" windowWidth="17955" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="15_countries_compared" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="24">
   <si>
     <t>country</t>
   </si>
@@ -85,10 +85,13 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Total cases</t>
+    <t>World</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Total occurences</t>
+  </si>
+  <si>
+    <t>15_summed</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -638,36 +641,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -981,15 +954,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
@@ -1006,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -1020,13 +994,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <f>SUM(C11,C20,C29,C38,C47,C56,C65,C74,C83,C92,C101,C110,C119,C128,C137)</f>
+        <f>SUM(C20,C29,C38,C47,C56,C65,C74,C83,C92,C101,C110,C119,C128,C137,C146)</f>
         <v>990</v>
       </c>
       <c r="D2">
@@ -1048,13 +1022,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <f>SUM(C12,C21,C30,C39,C48,C57,C66,C75,C84,C93,C102,C111,C120,C129,C138)</f>
+        <f>SUM(C21,C30,C39,C48,C57,C66,C75,C84,C93,C102,C111,C120,C129,C138,C147)</f>
         <v>388</v>
       </c>
       <c r="D3">
@@ -1076,13 +1050,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <f>SUM(C13,C22,C31,C40,C49,C58,C67,C76,C85,C94,C103,C112,C121,C130,C139)</f>
+        <f>SUM(C22,C31,C40,C49,C58,C67,C76,C85,C94,C103,C112,C121,C130,C139,C148)</f>
         <v>231</v>
       </c>
       <c r="D4">
@@ -1104,13 +1078,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <f>SUM(C14,C23,C32,C41,C50,C59,C68,C77,C86,C95,C104,C113,C122,C131,C140)</f>
+        <f>SUM(C23,C32,C41,C50,C59,C68,C77,C86,C95,C104,C113,C122,C131,C140,C149)</f>
         <v>218</v>
       </c>
       <c r="D5">
@@ -1132,13 +1106,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <f>SUM(C15,C24,C33,C42,C51,C60,C69,C78,C87,C96,C105,C114,C123,C132,C141)</f>
+        <f>SUM(C24,C33,C42,C51,C60,C69,C78,C87,C96,C105,C114,C123,C132,C141,C150)</f>
         <v>193</v>
       </c>
       <c r="D6">
@@ -1160,13 +1134,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <f>SUM(C16,C25,C34,C43,C52,C61,C70,C79,C88,C97,C106,C115,C124,C133,C142)</f>
+        <f>SUM(C25,C34,C43,C52,C61,C70,C79,C88,C97,C106,C115,C124,C133,C142,C151)</f>
         <v>176</v>
       </c>
       <c r="D7">
@@ -1188,13 +1162,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <f>SUM(C17,C26,C35,C44,C53,C62,C71,C80,C89,C98,C107,C116,C125,C134,C143)</f>
+        <f>SUM(C26,C35,C44,C53,C62,C71,C80,C89,C98,C107,C116,C125,C134,C143,C152)</f>
         <v>182</v>
       </c>
       <c r="D8">
@@ -1216,13 +1190,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <f>SUM(C18,C27,C36,C45,C54,C63,C72,C81,C90,C99,C108,C117,C126,C135,C144)</f>
+        <f>SUM(C27,C36,C45,C54,C63,C72,C81,C90,C99,C108,C117,C126,C135,C144,C153)</f>
         <v>141</v>
       </c>
       <c r="D9">
@@ -1244,13 +1218,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <f>SUM(C19,C28,C37,C46,C55,C64,C73,C82,C91,C100,C109,C118,C127,C136,C145)</f>
+        <f>SUM(C28,C37,C46,C55,C64,C73,C82,C91,C100,C109,C118,C127,C136,C145,C154)</f>
         <v>155</v>
       </c>
       <c r="D10">
@@ -1272,21 +1246,21 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>81</v>
+        <v>5928</v>
       </c>
       <c r="D11">
         <f>SUM(C11:C19)</f>
-        <v>197</v>
+        <v>15490</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:E19" si="0">(C11/D11)</f>
-        <v>0.41116751269035534</v>
+        <f>(C11/D11)</f>
+        <v>0.38269851517107811</v>
       </c>
       <c r="F11" s="1">
         <f>301/1000</f>
@@ -1294,286 +1268,294 @@
       </c>
       <c r="G11" s="1">
         <f>(E11-F11)</f>
-        <v>0.11016751269035535</v>
+        <v>8.1698515171078123E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>2707</v>
       </c>
       <c r="D12">
-        <v>197</v>
+        <f>SUM(C11:C19)</f>
+        <v>15490</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13705583756345177</v>
+        <f>(C12/D12)</f>
+        <v>0.17475790832795352</v>
       </c>
       <c r="F12" s="1">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:G75" si="1">(E12-F12)</f>
-        <v>-3.8944162436548219E-2</v>
+        <f>(E12-F12)</f>
+        <v>-1.2420916720464747E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>1767</v>
       </c>
       <c r="D13">
-        <v>197</v>
+        <f>SUM(C11:C19)</f>
+        <v>15490</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5837563451776651E-2</v>
+        <f>(C13/D13)</f>
+        <v>0.11407359586830212</v>
       </c>
       <c r="F13" s="1">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>-6.9162436548223349E-2</v>
+        <f>(E13-F13)</f>
+        <v>-1.0926404131697875E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>1337</v>
       </c>
       <c r="D14">
-        <v>197</v>
+        <f>SUM(C11:C19)</f>
+        <v>15490</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5989847715736044E-2</v>
+        <f>(C14/D14)</f>
+        <v>8.6313750806972234E-2</v>
       </c>
       <c r="F14" s="1">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>-3.1010152284263959E-2</v>
+        <f>(E14-F14)</f>
+        <v>-1.0686249193027769E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>1019</v>
       </c>
       <c r="D15">
-        <v>197</v>
+        <f>SUM(C11:C19)</f>
+        <v>15490</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>8.1218274111675121E-2</v>
+        <f>(C15/D15)</f>
+        <v>6.5784377017430604E-2</v>
       </c>
       <c r="F15" s="1">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2182741116751198E-3</v>
+        <f>(E15-F15)</f>
+        <v>-1.3215622982569397E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>854</v>
       </c>
       <c r="D16">
-        <v>197</v>
+        <f>SUM(C11:C19)</f>
+        <v>15490</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5989847715736044E-2</v>
+        <f>(C16/D16)</f>
+        <v>5.5132343447385407E-2</v>
       </c>
       <c r="F16" s="1">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.0101522842639599E-3</v>
+        <f>(E16-F16)</f>
+        <v>-1.1867656552614597E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>714</v>
       </c>
       <c r="D17">
-        <v>197</v>
+        <f>SUM(C11:C19)</f>
+        <v>15490</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>5.5837563451776651E-2</v>
+        <f>(C17/D17)</f>
+        <v>4.6094254357650098E-2</v>
       </c>
       <c r="F17" s="1">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.1624365482233524E-3</v>
+        <f>(E17-F17)</f>
+        <v>-1.1905745642349905E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>639</v>
       </c>
       <c r="D18">
-        <v>197</v>
+        <f>SUM(C11:C19)</f>
+        <v>15490</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0761421319796954E-2</v>
+        <f>(C18/D18)</f>
+        <v>4.1252420916720461E-2</v>
       </c>
       <c r="F18" s="1">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.385786802030429E-4</v>
+        <f>(E18-F18)</f>
+        <v>-9.7475790832795353E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>525</v>
       </c>
       <c r="D19">
-        <v>197</v>
+        <f>SUM(C11:C19)</f>
+        <v>15490</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>7.6142131979695438E-2</v>
+        <f>(C19/D19)</f>
+        <v>3.3892834086507423E-2</v>
       </c>
       <c r="F19" s="1">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0142131979695438E-2</v>
+        <f>(E19-F19)</f>
+        <v>-1.2107165913492576E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20">
         <f>SUM(C20:C28)</f>
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E20" s="1">
-        <f>(C20/D20)</f>
-        <v>0.44198895027624308</v>
+        <f t="shared" ref="E20:E28" si="0">(C20/D20)</f>
+        <v>0.41116751269035534</v>
       </c>
       <c r="F20" s="1">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.14098895027624309</v>
+        <f>(E20-F20)</f>
+        <v>0.11016751269035535</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E21" s="1">
-        <f>(C21/D21)</f>
-        <v>4.9723756906077346E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13705583756345177</v>
       </c>
       <c r="F21" s="1">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.12627624309392266</v>
+        <f t="shared" ref="G21:G84" si="1">(E21-F21)</f>
+        <v>-3.8944162436548219E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E22" s="1">
-        <f>(C22/D22)</f>
-        <v>4.9723756906077346E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.5837563451776651E-2</v>
       </c>
       <c r="F22" s="1">
         <f>125/1000</f>
@@ -1581,25 +1563,25 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" si="1"/>
-        <v>-7.5276243093922654E-2</v>
+        <v>-6.9162436548223349E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E23" s="1">
-        <f>(C23/D23)</f>
-        <v>7.7348066298342538E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.5989847715736044E-2</v>
       </c>
       <c r="F23" s="1">
         <f>97/1000</f>
@@ -1607,25 +1589,25 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>-1.9651933701657465E-2</v>
+        <v>-3.1010152284263959E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E24" s="1">
-        <f>(C24/D24)</f>
-        <v>7.18232044198895E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1218274111675121E-2</v>
       </c>
       <c r="F24" s="1">
         <f>79/1000</f>
@@ -1633,25 +1615,25 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" si="1"/>
-        <v>-7.176795580110501E-3</v>
+        <v>2.2182741116751198E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E25" s="1">
-        <f>(C25/D25)</f>
-        <v>0.10497237569060773</v>
+        <f t="shared" si="0"/>
+        <v>6.5989847715736044E-2</v>
       </c>
       <c r="F25" s="1">
         <f>67/1000</f>
@@ -1659,12 +1641,12 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" si="1"/>
-        <v>3.7972375690607726E-2</v>
+        <v>-1.0101522842639599E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -1673,11 +1655,11 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E26" s="1">
-        <f>(C26/D26)</f>
-        <v>6.0773480662983423E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.5837563451776651E-2</v>
       </c>
       <c r="F26" s="1">
         <f>58/1000</f>
@@ -1685,25 +1667,25 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="1"/>
-        <v>2.7734806629834199E-3</v>
+        <v>-2.1624365482233524E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>8</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E27" s="1">
-        <f>(C27/D27)</f>
-        <v>7.18232044198895E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.0761421319796954E-2</v>
       </c>
       <c r="F27" s="1">
         <f>51/1000</f>
@@ -1711,25 +1693,25 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>2.0823204419889503E-2</v>
+        <v>-2.385786802030429E-4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
         <v>9</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E28" s="1">
-        <f>(C28/D28)</f>
-        <v>7.18232044198895E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6142131979695438E-2</v>
       </c>
       <c r="F28" s="1">
         <f>46/1000</f>
@@ -1737,26 +1719,26 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" si="1"/>
-        <v>2.5823204419889501E-2</v>
+        <v>3.0142131979695438E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <f>SUM(C29:C37)</f>
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E29" s="1">
         <f>(C29/D29)</f>
-        <v>0.29213483146067415</v>
+        <v>0.44198895027624308</v>
       </c>
       <c r="F29" s="1">
         <f>301/1000</f>
@@ -1764,25 +1746,25 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" si="1"/>
-        <v>-8.8651685393258406E-3</v>
+        <v>0.14098895027624309</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ref="E30:E93" si="2">(C30/D30)</f>
-        <v>0.10112359550561797</v>
+        <f>(C30/D30)</f>
+        <v>4.9723756906077346E-2</v>
       </c>
       <c r="F30" s="1">
         <f>176/1000</f>
@@ -1790,25 +1772,25 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" si="1"/>
-        <v>-7.4876404494382015E-2</v>
+        <v>-0.12627624309392266</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1404494382022472</v>
+        <f>(C31/D31)</f>
+        <v>4.9723756906077346E-2</v>
       </c>
       <c r="F31" s="1">
         <f>125/1000</f>
@@ -1816,25 +1798,25 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>1.5449438202247201E-2</v>
+        <v>-7.5276243093922654E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11235955056179775</v>
+        <f>(C32/D32)</f>
+        <v>7.7348066298342538E-2</v>
       </c>
       <c r="F32" s="1">
         <f>97/1000</f>
@@ -1842,12 +1824,12 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" si="1"/>
-        <v>1.5359550561797747E-2</v>
+        <v>-1.9651933701657465E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1856,11 +1838,11 @@
         <v>13</v>
       </c>
       <c r="D33">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
-        <v>7.3033707865168537E-2</v>
+        <f>(C33/D33)</f>
+        <v>7.18232044198895E-2</v>
       </c>
       <c r="F33" s="1">
         <f>79/1000</f>
@@ -1868,25 +1850,25 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" si="1"/>
-        <v>-5.9662921348314635E-3</v>
+        <v>-7.176795580110501E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6179775280898875E-2</v>
+        <f>(C34/D34)</f>
+        <v>0.10497237569060773</v>
       </c>
       <c r="F34" s="1">
         <f>67/1000</f>
@@ -1894,12 +1876,12 @@
       </c>
       <c r="G34" s="1">
         <f t="shared" si="1"/>
-        <v>-1.0820224719101129E-2</v>
+        <v>3.7972375690607726E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -1908,11 +1890,11 @@
         <v>11</v>
       </c>
       <c r="D35">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="2"/>
-        <v>6.1797752808988762E-2</v>
+        <f>(C35/D35)</f>
+        <v>6.0773480662983423E-2</v>
       </c>
       <c r="F35" s="1">
         <f>58/1000</f>
@@ -1920,12 +1902,12 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" si="1"/>
-        <v>3.7977528089887594E-3</v>
+        <v>2.7734806629834199E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -1934,11 +1916,11 @@
         <v>13</v>
       </c>
       <c r="D36">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="2"/>
-        <v>7.3033707865168537E-2</v>
+        <f>(C36/D36)</f>
+        <v>7.18232044198895E-2</v>
       </c>
       <c r="F36" s="1">
         <f>51/1000</f>
@@ -1946,25 +1928,25 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" si="1"/>
-        <v>2.2033707865168541E-2</v>
+        <v>2.0823204419889503E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>9</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
-        <v>8.98876404494382E-2</v>
+        <f>(C37/D37)</f>
+        <v>7.18232044198895E-2</v>
       </c>
       <c r="F37" s="1">
         <f>46/1000</f>
@@ -1972,26 +1954,26 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" si="1"/>
-        <v>4.3887640449438201E-2</v>
+        <v>2.5823204419889501E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <f>SUM(C38:C46)</f>
         <v>178</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1853932584269663</v>
+        <f>(C38/D38)</f>
+        <v>0.29213483146067415</v>
       </c>
       <c r="F38" s="1">
         <f>301/1000</f>
@@ -1999,25 +1981,25 @@
       </c>
       <c r="G38" s="1">
         <f t="shared" si="1"/>
-        <v>-0.11560674157303369</v>
+        <v>-8.8651685393258406E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>178</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15730337078651685</v>
+        <f t="shared" ref="E39:E102" si="2">(C39/D39)</f>
+        <v>0.10112359550561797</v>
       </c>
       <c r="F39" s="1">
         <f>176/1000</f>
@@ -2025,25 +2007,25 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" si="1"/>
-        <v>-1.869662921348314E-2</v>
+        <v>-7.4876404494382015E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D40">
         <v>178</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="2"/>
-        <v>0.10112359550561797</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="F40" s="1">
         <f>125/1000</f>
@@ -2051,12 +2033,12 @@
       </c>
       <c r="G40" s="1">
         <f t="shared" si="1"/>
-        <v>-2.3876404494382025E-2</v>
+        <v>1.5449438202247201E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2065,11 +2047,11 @@
         <v>20</v>
       </c>
       <c r="D41">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="2"/>
-        <v>7.1942446043165464E-2</v>
+        <v>0.11235955056179775</v>
       </c>
       <c r="F41" s="1">
         <f>97/1000</f>
@@ -2077,25 +2059,25 @@
       </c>
       <c r="G41" s="1">
         <f t="shared" si="1"/>
-        <v>-2.5057553956834538E-2</v>
+        <v>1.5359550561797747E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>178</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="2"/>
-        <v>8.98876404494382E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="F42" s="1">
         <f>79/1000</f>
@@ -2103,25 +2085,25 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" si="1"/>
-        <v>1.0887640449438199E-2</v>
+        <v>-5.9662921348314635E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>178</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="2"/>
-        <v>0.12359550561797752</v>
+        <v>5.6179775280898875E-2</v>
       </c>
       <c r="F43" s="1">
         <f>67/1000</f>
@@ -2129,25 +2111,25 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" si="1"/>
-        <v>5.6595505617977521E-2</v>
+        <v>-1.0820224719101129E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>178</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="2"/>
-        <v>0.12921348314606743</v>
+        <v>6.1797752808988762E-2</v>
       </c>
       <c r="F44" s="1">
         <f>58/1000</f>
@@ -2155,12 +2137,12 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" si="1"/>
-        <v>7.121348314606743E-2</v>
+        <v>3.7977528089887594E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -2186,20 +2168,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>9</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>178</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="2"/>
-        <v>2.8089887640449437E-2</v>
+        <v>8.98876404494382E-2</v>
       </c>
       <c r="F46" s="1">
         <f>46/1000</f>
@@ -2207,26 +2189,26 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" si="1"/>
-        <v>-1.7910112359550562E-2</v>
+        <v>4.3887640449438201E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D47">
         <f>SUM(C47:C55)</f>
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="2"/>
-        <v>0.33862433862433861</v>
+        <v>0.1853932584269663</v>
       </c>
       <c r="F47" s="1">
         <f>301/1000</f>
@@ -2234,12 +2216,12 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" si="1"/>
-        <v>3.7624338624338616E-2</v>
+        <v>-0.11560674157303369</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2248,11 +2230,11 @@
         <v>28</v>
       </c>
       <c r="D48">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="2"/>
-        <v>0.14814814814814814</v>
+        <v>0.15730337078651685</v>
       </c>
       <c r="F48" s="1">
         <f>176/1000</f>
@@ -2260,25 +2242,25 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" si="1"/>
-        <v>-2.785185185185185E-2</v>
+        <v>-1.869662921348314E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="2"/>
-        <v>0.13756613756613756</v>
+        <v>0.10112359550561797</v>
       </c>
       <c r="F49" s="1">
         <f>125/1000</f>
@@ -2286,25 +2268,25 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" si="1"/>
-        <v>1.2566137566137559E-2</v>
+        <v>-2.3876404494382025E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>4</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="2"/>
-        <v>7.407407407407407E-2</v>
+        <v>7.1942446043165464E-2</v>
       </c>
       <c r="F50" s="1">
         <f>97/1000</f>
@@ -2312,25 +2294,25 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" si="1"/>
-        <v>-2.2925925925925933E-2</v>
+        <v>-2.5057553956834538E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="2"/>
-        <v>7.407407407407407E-2</v>
+        <v>8.98876404494382E-2</v>
       </c>
       <c r="F51" s="1">
         <f>79/1000</f>
@@ -2338,25 +2320,25 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" si="1"/>
-        <v>-4.9259259259259308E-3</v>
+        <v>1.0887640449438199E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="2"/>
-        <v>7.407407407407407E-2</v>
+        <v>0.12359550561797752</v>
       </c>
       <c r="F52" s="1">
         <f>67/1000</f>
@@ -2364,25 +2346,25 @@
       </c>
       <c r="G52" s="1">
         <f t="shared" si="1"/>
-        <v>7.074074074074066E-3</v>
+        <v>5.6595505617977521E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>7</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="2"/>
-        <v>5.2910052910052907E-2</v>
+        <v>0.12921348314606743</v>
       </c>
       <c r="F53" s="1">
         <f>58/1000</f>
@@ -2390,25 +2372,25 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" si="1"/>
-        <v>-5.0899470899470958E-3</v>
+        <v>7.121348314606743E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="2"/>
-        <v>4.7619047619047616E-2</v>
+        <v>7.3033707865168537E-2</v>
       </c>
       <c r="F54" s="1">
         <f>51/1000</f>
@@ -2416,25 +2398,25 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" si="1"/>
-        <v>-3.3809523809523803E-3</v>
+        <v>2.2033707865168541E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>9</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="2"/>
-        <v>5.2910052910052907E-2</v>
+        <v>2.8089887640449437E-2</v>
       </c>
       <c r="F55" s="1">
         <f>46/1000</f>
@@ -2442,26 +2424,26 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" si="1"/>
-        <v>6.9100529100529079E-3</v>
+        <v>-1.7910112359550562E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <f>SUM(C56:C64)</f>
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="2"/>
-        <v>0.26341463414634148</v>
+        <v>0.33862433862433861</v>
       </c>
       <c r="F56" s="1">
         <f>301/1000</f>
@@ -2469,25 +2451,25 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" si="1"/>
-        <v>-3.7585365853658514E-2</v>
+        <v>3.7624338624338616E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E57" s="1">
         <f t="shared" si="2"/>
-        <v>0.1024390243902439</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="F57" s="1">
         <f>176/1000</f>
@@ -2495,25 +2477,25 @@
       </c>
       <c r="G57" s="1">
         <f t="shared" si="1"/>
-        <v>-7.3560975609756094E-2</v>
+        <v>-2.785185185185185E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E58" s="1">
         <f t="shared" si="2"/>
-        <v>9.2682926829268292E-2</v>
+        <v>0.13756613756613756</v>
       </c>
       <c r="F58" s="1">
         <f>125/1000</f>
@@ -2521,25 +2503,25 @@
       </c>
       <c r="G58" s="1">
         <f t="shared" si="1"/>
-        <v>-3.2317073170731708E-2</v>
+        <v>1.2566137566137559E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>4</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D59">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="2"/>
-        <v>0.12195121951219512</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F59" s="1">
         <f>97/1000</f>
@@ -2547,25 +2529,25 @@
       </c>
       <c r="G59" s="1">
         <f t="shared" si="1"/>
-        <v>2.4951219512195116E-2</v>
+        <v>-2.2925925925925933E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="2"/>
-        <v>0.11219512195121951</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F60" s="1">
         <f>79/1000</f>
@@ -2573,25 +2555,25 @@
       </c>
       <c r="G60" s="1">
         <f t="shared" si="1"/>
-        <v>3.3195121951219514E-2</v>
+        <v>-4.9259259259259308E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D61">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="2"/>
-        <v>0.10731707317073171</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F61" s="1">
         <f>67/1000</f>
@@ -2599,25 +2581,25 @@
       </c>
       <c r="G61" s="1">
         <f t="shared" si="1"/>
-        <v>4.0317073170731701E-2</v>
+        <v>7.074074074074066E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>7</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="2"/>
-        <v>0.1024390243902439</v>
+        <v>5.2910052910052907E-2</v>
       </c>
       <c r="F62" s="1">
         <f>58/1000</f>
@@ -2625,25 +2607,25 @@
       </c>
       <c r="G62" s="1">
         <f t="shared" si="1"/>
-        <v>4.4439024390243893E-2</v>
+        <v>-5.0899470899470958E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>8</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="2"/>
-        <v>5.3658536585365853E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="F63" s="1">
         <f>51/1000</f>
@@ -2651,25 +2633,25 @@
       </c>
       <c r="G63" s="1">
         <f t="shared" si="1"/>
-        <v>2.658536585365856E-3</v>
+        <v>-3.3809523809523803E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>9</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="2"/>
-        <v>4.3902439024390241E-2</v>
+        <v>5.2910052910052907E-2</v>
       </c>
       <c r="F64" s="1">
         <f>46/1000</f>
@@ -2677,26 +2659,26 @@
       </c>
       <c r="G64" s="1">
         <f t="shared" si="1"/>
-        <v>-2.097560975609758E-3</v>
+        <v>6.9100529100529079E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D65">
         <f>SUM(C65:C73)</f>
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="2"/>
-        <v>0.31874999999999998</v>
+        <v>0.26341463414634148</v>
       </c>
       <c r="F65" s="1">
         <f>301/1000</f>
@@ -2704,25 +2686,25 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" si="1"/>
-        <v>1.7749999999999988E-2</v>
+        <v>-3.7585365853658514E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="2"/>
-        <v>0.22500000000000001</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="F66" s="1">
         <f>176/1000</f>
@@ -2730,25 +2712,25 @@
       </c>
       <c r="G66" s="1">
         <f t="shared" si="1"/>
-        <v>4.9000000000000016E-2</v>
+        <v>-7.3560975609756094E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="2"/>
-        <v>0.13125000000000001</v>
+        <v>9.2682926829268292E-2</v>
       </c>
       <c r="F67" s="1">
         <f>125/1000</f>
@@ -2756,25 +2738,25 @@
       </c>
       <c r="G67" s="1">
         <f t="shared" si="1"/>
-        <v>6.2500000000000056E-3</v>
+        <v>-3.2317073170731708E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D68">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="F68" s="1">
         <f>97/1000</f>
@@ -2782,25 +2764,25 @@
       </c>
       <c r="G68" s="1">
         <f t="shared" si="1"/>
-        <v>-4.7E-2</v>
+        <v>2.4951219512195116E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D69">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E69" s="1">
         <f t="shared" si="2"/>
-        <v>9.375E-2</v>
+        <v>0.11219512195121951</v>
       </c>
       <c r="F69" s="1">
         <f>79/1000</f>
@@ -2808,25 +2790,25 @@
       </c>
       <c r="G69" s="1">
         <f t="shared" si="1"/>
-        <v>1.4749999999999999E-2</v>
+        <v>3.3195121951219514E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E70" s="1">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.10731707317073171</v>
       </c>
       <c r="F70" s="1">
         <f>67/1000</f>
@@ -2834,25 +2816,25 @@
       </c>
       <c r="G70" s="1">
         <f t="shared" si="1"/>
-        <v>-4.2000000000000003E-2</v>
+        <v>4.0317073170731701E-2</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D71">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E71" s="1">
         <f t="shared" si="2"/>
-        <v>5.6250000000000001E-2</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="F71" s="1">
         <f>58/1000</f>
@@ -2860,25 +2842,25 @@
       </c>
       <c r="G71" s="1">
         <f t="shared" si="1"/>
-        <v>-1.7500000000000016E-3</v>
+        <v>4.4439024390243893E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>8</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E72" s="1">
         <f t="shared" si="2"/>
-        <v>5.6250000000000001E-2</v>
+        <v>5.3658536585365853E-2</v>
       </c>
       <c r="F72" s="1">
         <f>51/1000</f>
@@ -2886,25 +2868,25 @@
       </c>
       <c r="G72" s="1">
         <f t="shared" si="1"/>
-        <v>5.2500000000000047E-3</v>
+        <v>2.658536585365856E-3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>9</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D73">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="2"/>
-        <v>4.3749999999999997E-2</v>
+        <v>4.3902439024390241E-2</v>
       </c>
       <c r="F73" s="1">
         <f>46/1000</f>
@@ -2912,26 +2894,26 @@
       </c>
       <c r="G73" s="1">
         <f t="shared" si="1"/>
-        <v>-2.250000000000002E-3</v>
+        <v>-2.097560975609758E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D74">
         <f>SUM(C74:C82)</f>
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="2"/>
-        <v>0.59036144578313254</v>
+        <v>0.31874999999999998</v>
       </c>
       <c r="F74" s="1">
         <f>301/1000</f>
@@ -2939,25 +2921,25 @@
       </c>
       <c r="G74" s="1">
         <f t="shared" si="1"/>
-        <v>0.28936144578313255</v>
+        <v>1.7749999999999988E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="2"/>
-        <v>0.16867469879518071</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F75" s="1">
         <f>176/1000</f>
@@ -2965,286 +2947,286 @@
       </c>
       <c r="G75" s="1">
         <f t="shared" si="1"/>
-        <v>-7.3253012048192789E-3</v>
+        <v>4.9000000000000016E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D76">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="2"/>
-        <v>3.614457831325301E-2</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="F76" s="1">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" ref="G76:G139" si="3">(E76-F76)</f>
-        <v>-8.8855421686746983E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2500000000000056E-3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="2"/>
-        <v>3.614457831325301E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F77" s="1">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G77" s="1">
-        <f t="shared" si="3"/>
-        <v>-6.0855421686746992E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.7E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>5</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="2"/>
-        <v>4.2168674698795178E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="F78" s="1">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.6831325301204823E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4749999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E79" s="1">
         <f t="shared" si="2"/>
-        <v>3.0120481927710843E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F79" s="1">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.6879518072289161E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>7</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E80" s="1">
         <f t="shared" si="2"/>
-        <v>3.0120481927710843E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="F80" s="1">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G80" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.787951807228916E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.7500000000000016E-3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>8</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E81" s="1">
         <f t="shared" si="2"/>
-        <v>3.614457831325301E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="F81" s="1">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.4855421686746986E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2500000000000047E-3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>9</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D82">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E82" s="1">
         <f t="shared" si="2"/>
-        <v>3.0120481927710843E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="F82" s="1">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G82" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.5879518072289156E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.250000000000002E-3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D83">
         <f>SUM(C83:C91)</f>
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="2"/>
-        <v>0.22580645161290322</v>
+        <v>0.59036144578313254</v>
       </c>
       <c r="F83" s="1">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="3"/>
-        <v>-7.519354838709677E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.28936144578313255</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D84">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E84" s="1">
         <f t="shared" si="2"/>
-        <v>0.19354838709677419</v>
+        <v>0.16867469879518071</v>
       </c>
       <c r="F84" s="1">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="3"/>
-        <v>1.7548387096774198E-2</v>
+        <f t="shared" si="1"/>
+        <v>-7.3253012048192789E-3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="2"/>
-        <v>0.12903225806451613</v>
+        <v>3.614457831325301E-2</v>
       </c>
       <c r="F85" s="1">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0322580645161255E-3</v>
+        <f t="shared" ref="G85:G148" si="3">(E85-F85)</f>
+        <v>-8.8855421686746983E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E86" s="1">
         <f t="shared" si="2"/>
-        <v>0.10967741935483871</v>
+        <v>3.614457831325301E-2</v>
       </c>
       <c r="F86" s="1">
         <f>97/1000</f>
@@ -3252,25 +3234,25 @@
       </c>
       <c r="G86" s="1">
         <f t="shared" si="3"/>
-        <v>1.2677419354838709E-2</v>
+        <v>-6.0855421686746992E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D87">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E87" s="1">
         <f t="shared" si="2"/>
-        <v>9.0322580645161285E-2</v>
+        <v>4.2168674698795178E-2</v>
       </c>
       <c r="F87" s="1">
         <f>79/1000</f>
@@ -3278,25 +3260,25 @@
       </c>
       <c r="G87" s="1">
         <f t="shared" si="3"/>
-        <v>1.1322580645161284E-2</v>
+        <v>-3.6831325301204823E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="2"/>
-        <v>6.4516129032258063E-2</v>
+        <v>3.0120481927710843E-2</v>
       </c>
       <c r="F88" s="1">
         <f>67/1000</f>
@@ -3304,25 +3286,25 @@
       </c>
       <c r="G88" s="1">
         <f t="shared" si="3"/>
-        <v>-2.4838709677419413E-3</v>
+        <v>-3.6879518072289161E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E89" s="1">
         <f t="shared" si="2"/>
-        <v>9.6774193548387094E-2</v>
+        <v>3.0120481927710843E-2</v>
       </c>
       <c r="F89" s="1">
         <f>58/1000</f>
@@ -3330,12 +3312,12 @@
       </c>
       <c r="G89" s="1">
         <f t="shared" si="3"/>
-        <v>3.8774193548387091E-2</v>
+        <v>-2.787951807228916E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -3344,11 +3326,11 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" si="2"/>
-        <v>3.870967741935484E-2</v>
+        <v>3.614457831325301E-2</v>
       </c>
       <c r="F90" s="1">
         <f>51/1000</f>
@@ -3356,25 +3338,25 @@
       </c>
       <c r="G90" s="1">
         <f t="shared" si="3"/>
-        <v>-1.2290322580645156E-2</v>
+        <v>-1.4855421686746986E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D91">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" si="2"/>
-        <v>5.1612903225806452E-2</v>
+        <v>3.0120481927710843E-2</v>
       </c>
       <c r="F91" s="1">
         <f>46/1000</f>
@@ -3382,26 +3364,26 @@
       </c>
       <c r="G91" s="1">
         <f t="shared" si="3"/>
-        <v>5.6129032258064523E-3</v>
+        <v>-1.5879518072289156E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="D92">
         <f>SUM(C92:C100)</f>
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" si="2"/>
-        <v>0.53623188405797106</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="F92" s="1">
         <f>301/1000</f>
@@ -3409,25 +3391,25 @@
       </c>
       <c r="G92" s="1">
         <f t="shared" si="3"/>
-        <v>0.23523188405797107</v>
+        <v>-7.519354838709677E-2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E93" s="1">
         <f t="shared" si="2"/>
-        <v>9.6618357487922704E-2</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="F93" s="1">
         <f>176/1000</f>
@@ -3435,25 +3417,25 @@
       </c>
       <c r="G93" s="1">
         <f t="shared" si="3"/>
-        <v>-7.9381642512077286E-2</v>
+        <v>1.7548387096774198E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D94">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" ref="E94:E155" si="4">(C94/D94)</f>
-        <v>1.932367149758454E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F94" s="1">
         <f>125/1000</f>
@@ -3461,25 +3443,25 @@
       </c>
       <c r="G94" s="1">
         <f t="shared" si="3"/>
-        <v>-0.10567632850241546</v>
+        <v>4.0322580645161255E-3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95">
         <v>4</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3478260869565216E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.10967741935483871</v>
       </c>
       <c r="F95" s="1">
         <f>97/1000</f>
@@ -3487,25 +3469,25 @@
       </c>
       <c r="G95" s="1">
         <f t="shared" si="3"/>
-        <v>-5.3521739130434787E-2</v>
+        <v>1.2677419354838709E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="4"/>
-        <v>6.280193236714976E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.0322580645161285E-2</v>
       </c>
       <c r="F96" s="1">
         <f>79/1000</f>
@@ -3513,25 +3495,25 @@
       </c>
       <c r="G96" s="1">
         <f t="shared" si="3"/>
-        <v>-1.6198067632850241E-2</v>
+        <v>1.1322580645161284E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97">
         <v>6</v>
       </c>
       <c r="C97">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="4"/>
-        <v>6.7632850241545889E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="F97" s="1">
         <f>67/1000</f>
@@ -3539,25 +3521,25 @@
       </c>
       <c r="G97" s="1">
         <f t="shared" si="3"/>
-        <v>6.3285024154588476E-4</v>
+        <v>-2.4838709677419413E-3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98">
         <v>7</v>
       </c>
       <c r="C98">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="4"/>
-        <v>8.2125603864734303E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="F98" s="1">
         <f>58/1000</f>
@@ -3565,25 +3547,25 @@
       </c>
       <c r="G98" s="1">
         <f t="shared" si="3"/>
-        <v>2.41256038647343E-2</v>
+        <v>3.8774193548387091E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99">
         <v>8</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="4"/>
-        <v>4.3478260869565216E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.870967741935484E-2</v>
       </c>
       <c r="F99" s="1">
         <f>51/1000</f>
@@ -3591,25 +3573,25 @@
       </c>
       <c r="G99" s="1">
         <f t="shared" si="3"/>
-        <v>-7.5217391304347805E-3</v>
+        <v>-1.2290322580645156E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B100">
         <v>9</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D100">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="4"/>
-        <v>4.8309178743961352E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.1612903225806452E-2</v>
       </c>
       <c r="F100" s="1">
         <f>46/1000</f>
@@ -3617,26 +3599,26 @@
       </c>
       <c r="G100" s="1">
         <f t="shared" si="3"/>
-        <v>2.3091787439613529E-3</v>
+        <v>5.6129032258064523E-3</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D101">
         <f>SUM(C101:C109)</f>
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="4"/>
-        <v>0.30232558139534882</v>
+        <f t="shared" si="2"/>
+        <v>0.53623188405797106</v>
       </c>
       <c r="F101" s="1">
         <f>301/1000</f>
@@ -3644,25 +3626,25 @@
       </c>
       <c r="G101" s="1">
         <f t="shared" si="3"/>
-        <v>1.3255813953488293E-3</v>
+        <v>0.23523188405797107</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D102">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="4"/>
-        <v>0.30813953488372092</v>
+        <f t="shared" si="2"/>
+        <v>9.6618357487922704E-2</v>
       </c>
       <c r="F102" s="1">
         <f>176/1000</f>
@@ -3670,25 +3652,25 @@
       </c>
       <c r="G102" s="1">
         <f t="shared" si="3"/>
-        <v>0.13213953488372093</v>
+        <v>-7.9381642512077286E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="4"/>
-        <v>0.15697674418604651</v>
+        <f t="shared" ref="E103:E164" si="4">(C103/D103)</f>
+        <v>1.932367149758454E-2</v>
       </c>
       <c r="F103" s="1">
         <f>125/1000</f>
@@ -3696,25 +3678,25 @@
       </c>
       <c r="G103" s="1">
         <f t="shared" si="3"/>
-        <v>3.1976744186046513E-2</v>
+        <v>-0.10567632850241546</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" si="4"/>
-        <v>6.9767441860465115E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="F104" s="1">
         <f>97/1000</f>
@@ -3722,25 +3704,25 @@
       </c>
       <c r="G104" s="1">
         <f t="shared" si="3"/>
-        <v>-2.7232558139534888E-2</v>
+        <v>-5.3521739130434787E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D105">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E105" s="1">
         <f t="shared" si="4"/>
-        <v>2.9069767441860465E-2</v>
+        <v>6.280193236714976E-2</v>
       </c>
       <c r="F105" s="1">
         <f>79/1000</f>
@@ -3748,25 +3730,25 @@
       </c>
       <c r="G105" s="1">
         <f t="shared" si="3"/>
-        <v>-4.993023255813954E-2</v>
+        <v>-1.6198067632850241E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D106">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" si="4"/>
-        <v>3.4883720930232558E-2</v>
+        <v>6.7632850241545889E-2</v>
       </c>
       <c r="F106" s="1">
         <f>67/1000</f>
@@ -3774,25 +3756,25 @@
       </c>
       <c r="G106" s="1">
         <f t="shared" si="3"/>
-        <v>-3.2116279069767446E-2</v>
+        <v>6.3285024154588476E-4</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107">
         <v>7</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D107">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" si="4"/>
-        <v>2.9069767441860465E-2</v>
+        <v>8.2125603864734303E-2</v>
       </c>
       <c r="F107" s="1">
         <f>58/1000</f>
@@ -3800,25 +3782,25 @@
       </c>
       <c r="G107" s="1">
         <f t="shared" si="3"/>
-        <v>-2.8930232558139538E-2</v>
+        <v>2.41256038647343E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B108">
         <v>8</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D108">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" si="4"/>
-        <v>2.3255813953488372E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="F108" s="1">
         <f>51/1000</f>
@@ -3826,25 +3808,25 @@
       </c>
       <c r="G108" s="1">
         <f t="shared" si="3"/>
-        <v>-2.7744186046511625E-2</v>
+        <v>-7.5217391304347805E-3</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109">
         <v>9</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D109">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E109" s="1">
         <f t="shared" si="4"/>
-        <v>4.6511627906976744E-2</v>
+        <v>4.8309178743961352E-2</v>
       </c>
       <c r="F109" s="1">
         <f>46/1000</f>
@@ -3852,18 +3834,18 @@
       </c>
       <c r="G109" s="1">
         <f t="shared" si="3"/>
-        <v>5.1162790697674432E-4</v>
+        <v>2.3091787439613529E-3</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D110">
         <f>SUM(C110:C118)</f>
@@ -3871,7 +3853,7 @@
       </c>
       <c r="E110" s="1">
         <f t="shared" si="4"/>
-        <v>0.61627906976744184</v>
+        <v>0.30232558139534882</v>
       </c>
       <c r="F110" s="1">
         <f>301/1000</f>
@@ -3879,25 +3861,25 @@
       </c>
       <c r="G110" s="1">
         <f t="shared" si="3"/>
-        <v>0.31527906976744186</v>
+        <v>1.3255813953488293E-3</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D111">
         <v>172</v>
       </c>
       <c r="E111" s="1">
         <f t="shared" si="4"/>
-        <v>5.232558139534884E-2</v>
+        <v>0.30813953488372092</v>
       </c>
       <c r="F111" s="1">
         <f>176/1000</f>
@@ -3905,25 +3887,25 @@
       </c>
       <c r="G111" s="1">
         <f t="shared" si="3"/>
-        <v>-0.12367441860465114</v>
+        <v>0.13213953488372093</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D112">
         <v>172</v>
       </c>
       <c r="E112" s="1">
         <f t="shared" si="4"/>
-        <v>5.8139534883720929E-3</v>
+        <v>0.15697674418604651</v>
       </c>
       <c r="F112" s="1">
         <f>125/1000</f>
@@ -3931,25 +3913,25 @@
       </c>
       <c r="G112" s="1">
         <f t="shared" si="3"/>
-        <v>-0.11918604651162791</v>
+        <v>3.1976744186046513E-2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>172</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="4"/>
-        <v>4.6511627906976744E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="F113" s="1">
         <f>97/1000</f>
@@ -3957,25 +3939,25 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" si="3"/>
-        <v>-5.0488372093023259E-2</v>
+        <v>-2.7232558139534888E-2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B114">
         <v>5</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D114">
         <v>172</v>
       </c>
       <c r="E114" s="1">
         <f t="shared" si="4"/>
-        <v>4.0697674418604654E-2</v>
+        <v>2.9069767441860465E-2</v>
       </c>
       <c r="F114" s="1">
         <f>79/1000</f>
@@ -3983,25 +3965,25 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" si="3"/>
-        <v>-3.8302325581395347E-2</v>
+        <v>-4.993023255813954E-2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115">
         <v>6</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D115">
         <v>172</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="4"/>
-        <v>4.6511627906976744E-2</v>
+        <v>3.4883720930232558E-2</v>
       </c>
       <c r="F115" s="1">
         <f>67/1000</f>
@@ -4009,25 +3991,25 @@
       </c>
       <c r="G115" s="1">
         <f t="shared" si="3"/>
-        <v>-2.048837209302326E-2</v>
+        <v>-3.2116279069767446E-2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B116">
         <v>7</v>
       </c>
       <c r="C116">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D116">
         <v>172</v>
       </c>
       <c r="E116" s="1">
         <f t="shared" si="4"/>
-        <v>5.232558139534884E-2</v>
+        <v>2.9069767441860465E-2</v>
       </c>
       <c r="F116" s="1">
         <f>58/1000</f>
@@ -4035,25 +4017,25 @@
       </c>
       <c r="G116" s="1">
         <f t="shared" si="3"/>
-        <v>-5.674418604651163E-3</v>
+        <v>-2.8930232558139538E-2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B117">
         <v>8</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D117">
         <v>172</v>
       </c>
       <c r="E117" s="1">
         <f t="shared" si="4"/>
-        <v>4.0697674418604654E-2</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="F117" s="1">
         <f>51/1000</f>
@@ -4061,25 +4043,25 @@
       </c>
       <c r="G117" s="1">
         <f t="shared" si="3"/>
-        <v>-1.0302325581395343E-2</v>
+        <v>-2.7744186046511625E-2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B118">
         <v>9</v>
       </c>
       <c r="C118">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D118">
         <v>172</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" si="4"/>
-        <v>9.8837209302325577E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="F118" s="1">
         <f>46/1000</f>
@@ -4087,26 +4069,26 @@
       </c>
       <c r="G118" s="1">
         <f t="shared" si="3"/>
-        <v>5.2837209302325577E-2</v>
+        <v>5.1162790697674432E-4</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="D119">
         <f>SUM(C119:C127)</f>
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" si="4"/>
-        <v>0.39751552795031053</v>
+        <v>0.61627906976744184</v>
       </c>
       <c r="F119" s="1">
         <f>301/1000</f>
@@ -4114,25 +4096,25 @@
       </c>
       <c r="G119" s="1">
         <f t="shared" si="3"/>
-        <v>9.6515527950310542E-2</v>
+        <v>0.31527906976744186</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D120">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" si="4"/>
-        <v>0.16770186335403728</v>
+        <v>5.232558139534884E-2</v>
       </c>
       <c r="F120" s="1">
         <f>176/1000</f>
@@ -4140,25 +4122,25 @@
       </c>
       <c r="G120" s="1">
         <f t="shared" si="3"/>
-        <v>-8.2981366459627115E-3</v>
+        <v>-0.12367441860465114</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121">
         <v>3</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E121" s="1">
         <f t="shared" si="4"/>
-        <v>8.0745341614906832E-2</v>
+        <v>5.8139534883720929E-3</v>
       </c>
       <c r="F121" s="1">
         <f>125/1000</f>
@@ -4166,25 +4148,25 @@
       </c>
       <c r="G121" s="1">
         <f t="shared" si="3"/>
-        <v>-4.4254658385093168E-2</v>
+        <v>-0.11918604651162791</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B122">
         <v>4</v>
       </c>
       <c r="C122">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D122">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E122" s="1">
         <f t="shared" si="4"/>
-        <v>9.3167701863354033E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="F122" s="1">
         <f>97/1000</f>
@@ -4192,25 +4174,25 @@
       </c>
       <c r="G122" s="1">
         <f t="shared" si="3"/>
-        <v>-3.8322981366459702E-3</v>
+        <v>-5.0488372093023259E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D123">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E123" s="1">
         <f t="shared" si="4"/>
-        <v>5.5900621118012424E-2</v>
+        <v>4.0697674418604654E-2</v>
       </c>
       <c r="F123" s="1">
         <f>79/1000</f>
@@ -4218,25 +4200,25 @@
       </c>
       <c r="G123" s="1">
         <f t="shared" si="3"/>
-        <v>-2.3099378881987577E-2</v>
+        <v>-3.8302325581395347E-2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B124">
         <v>6</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D124">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E124" s="1">
         <f t="shared" si="4"/>
-        <v>3.1055900621118012E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="F124" s="1">
         <f>67/1000</f>
@@ -4244,25 +4226,25 @@
       </c>
       <c r="G124" s="1">
         <f t="shared" si="3"/>
-        <v>-3.5944099378881988E-2</v>
+        <v>-2.048837209302326E-2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B125">
         <v>7</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D125">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E125" s="1">
         <f t="shared" si="4"/>
-        <v>6.8322981366459631E-2</v>
+        <v>5.232558139534884E-2</v>
       </c>
       <c r="F125" s="1">
         <f>58/1000</f>
@@ -4270,25 +4252,25 @@
       </c>
       <c r="G125" s="1">
         <f t="shared" si="3"/>
-        <v>1.0322981366459628E-2</v>
+        <v>-5.674418604651163E-3</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B126">
         <v>8</v>
       </c>
       <c r="C126">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D126">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E126" s="1">
         <f t="shared" si="4"/>
-        <v>6.8322981366459631E-2</v>
+        <v>4.0697674418604654E-2</v>
       </c>
       <c r="F126" s="1">
         <f>51/1000</f>
@@ -4296,25 +4278,25 @@
       </c>
       <c r="G126" s="1">
         <f t="shared" si="3"/>
-        <v>1.7322981366459635E-2</v>
+        <v>-1.0302325581395343E-2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B127">
         <v>9</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D127">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E127" s="1">
         <f t="shared" si="4"/>
-        <v>3.7267080745341616E-2</v>
+        <v>9.8837209302325577E-2</v>
       </c>
       <c r="F127" s="1">
         <f>46/1000</f>
@@ -4322,26 +4304,26 @@
       </c>
       <c r="G127" s="1">
         <f t="shared" si="3"/>
-        <v>-8.7329192546583834E-3</v>
+        <v>5.2837209302325577E-2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D128">
         <f>SUM(C128:C136)</f>
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E128" s="1">
         <f t="shared" si="4"/>
-        <v>0.24</v>
+        <v>0.39751552795031053</v>
       </c>
       <c r="F128" s="1">
         <f>301/1000</f>
@@ -4349,25 +4331,25 @@
       </c>
       <c r="G128" s="1">
         <f t="shared" si="3"/>
-        <v>-6.0999999999999999E-2</v>
+        <v>9.6515527950310542E-2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D129">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E129" s="1">
         <f t="shared" si="4"/>
-        <v>0.12571428571428572</v>
+        <v>0.16770186335403728</v>
       </c>
       <c r="F129" s="1">
         <f>176/1000</f>
@@ -4375,25 +4357,25 @@
       </c>
       <c r="G129" s="1">
         <f t="shared" si="3"/>
-        <v>-5.0285714285714267E-2</v>
+        <v>-8.2981366459627115E-3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D130">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E130" s="1">
         <f t="shared" si="4"/>
-        <v>0.08</v>
+        <v>8.0745341614906832E-2</v>
       </c>
       <c r="F130" s="1">
         <f>125/1000</f>
@@ -4401,25 +4383,25 @@
       </c>
       <c r="G130" s="1">
         <f t="shared" si="3"/>
-        <v>-4.4999999999999998E-2</v>
+        <v>-4.4254658385093168E-2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
       <c r="C131">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D131">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E131" s="1">
         <f t="shared" si="4"/>
-        <v>0.12571428571428572</v>
+        <v>9.3167701863354033E-2</v>
       </c>
       <c r="F131" s="1">
         <f>97/1000</f>
@@ -4427,25 +4409,25 @@
       </c>
       <c r="G131" s="1">
         <f t="shared" si="3"/>
-        <v>2.871428571428572E-2</v>
+        <v>-3.8322981366459702E-3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D132">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E132" s="1">
         <f t="shared" si="4"/>
-        <v>9.1428571428571428E-2</v>
+        <v>5.5900621118012424E-2</v>
       </c>
       <c r="F132" s="1">
         <f>79/1000</f>
@@ -4453,25 +4435,25 @@
       </c>
       <c r="G132" s="1">
         <f t="shared" si="3"/>
-        <v>1.2428571428571428E-2</v>
+        <v>-2.3099378881987577E-2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B133">
         <v>6</v>
       </c>
       <c r="C133">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E133" s="1">
         <f t="shared" si="4"/>
-        <v>0.10285714285714286</v>
+        <v>3.1055900621118012E-2</v>
       </c>
       <c r="F133" s="1">
         <f>67/1000</f>
@@ -4479,25 +4461,25 @@
       </c>
       <c r="G133" s="1">
         <f t="shared" si="3"/>
-        <v>3.5857142857142851E-2</v>
+        <v>-3.5944099378881988E-2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B134">
         <v>7</v>
       </c>
       <c r="C134">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E134" s="1">
         <f t="shared" si="4"/>
-        <v>0.08</v>
+        <v>6.8322981366459631E-2</v>
       </c>
       <c r="F134" s="1">
         <f>58/1000</f>
@@ -4505,25 +4487,25 @@
       </c>
       <c r="G134" s="1">
         <f t="shared" si="3"/>
-        <v>2.1999999999999999E-2</v>
+        <v>1.0322981366459628E-2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B135">
         <v>8</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D135">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E135" s="1">
         <f t="shared" si="4"/>
-        <v>5.7142857142857141E-2</v>
+        <v>6.8322981366459631E-2</v>
       </c>
       <c r="F135" s="1">
         <f>51/1000</f>
@@ -4531,25 +4513,25 @@
       </c>
       <c r="G135" s="1">
         <f t="shared" si="3"/>
-        <v>6.1428571428571443E-3</v>
+        <v>1.7322981366459635E-2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B136">
         <v>9</v>
       </c>
       <c r="C136">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E136" s="1">
         <f t="shared" si="4"/>
-        <v>9.7142857142857142E-2</v>
+        <v>3.7267080745341616E-2</v>
       </c>
       <c r="F136" s="1">
         <f>46/1000</f>
@@ -4557,26 +4539,26 @@
       </c>
       <c r="G136" s="1">
         <f t="shared" si="3"/>
-        <v>5.1142857142857143E-2</v>
+        <v>-8.7329192546583834E-3</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D137">
         <f>SUM(C137:C145)</f>
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E137" s="1">
         <f t="shared" si="4"/>
-        <v>0.37640449438202245</v>
+        <v>0.24</v>
       </c>
       <c r="F137" s="1">
         <f>301/1000</f>
@@ -4584,25 +4566,25 @@
       </c>
       <c r="G137" s="1">
         <f t="shared" si="3"/>
-        <v>7.5404494382022458E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D138">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E138" s="1">
         <f t="shared" si="4"/>
-        <v>0.1797752808988764</v>
+        <v>0.12571428571428572</v>
       </c>
       <c r="F138" s="1">
         <f>176/1000</f>
@@ -4610,25 +4592,25 @@
       </c>
       <c r="G138" s="1">
         <f t="shared" si="3"/>
-        <v>3.7752808988764097E-3</v>
+        <v>-5.0285714285714267E-2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
       <c r="C139">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D139">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E139" s="1">
         <f t="shared" si="4"/>
-        <v>9.5505617977528087E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F139" s="1">
         <f>125/1000</f>
@@ -4636,116 +4618,116 @@
       </c>
       <c r="G139" s="1">
         <f t="shared" si="3"/>
-        <v>-2.9494382022471913E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="C140">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D140">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E140" s="1">
         <f t="shared" si="4"/>
-        <v>8.4269662921348312E-2</v>
+        <v>0.12571428571428572</v>
       </c>
       <c r="F140" s="1">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G140" s="1">
-        <f t="shared" ref="G140:G154" si="5">(E140-F140)</f>
-        <v>-1.2730337078651691E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.871428571428572E-2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D141">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E141" s="1">
         <f t="shared" si="4"/>
-        <v>6.741573033707865E-2</v>
+        <v>9.1428571428571428E-2</v>
       </c>
       <c r="F141" s="1">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G141" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.1584269662921351E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.2428571428571428E-2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B142">
         <v>6</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D142">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E142" s="1">
         <f t="shared" si="4"/>
-        <v>3.3707865168539325E-2</v>
+        <v>0.10285714285714286</v>
       </c>
       <c r="F142" s="1">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G142" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.3292134831460679E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5857142857142851E-2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B143">
         <v>7</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D143">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E143" s="1">
         <f t="shared" si="4"/>
-        <v>5.6179775280898875E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F143" s="1">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.8202247191011281E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -4754,53 +4736,288 @@
         <v>10</v>
       </c>
       <c r="D144">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E144" s="1">
         <f t="shared" si="4"/>
-        <v>5.6179775280898875E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="F144" s="1">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G144" s="1">
-        <f t="shared" si="5"/>
-        <v>5.1797752808988781E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.1428571428571443E-3</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B145">
         <v>9</v>
       </c>
       <c r="C145">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E145" s="1">
         <f t="shared" si="4"/>
-        <v>5.0561797752808987E-2</v>
+        <v>9.7142857142857142E-2</v>
       </c>
       <c r="F145" s="1">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G145" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1142857142857143E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>67</v>
+      </c>
+      <c r="D146">
+        <f>SUM(C146:C154)</f>
+        <v>178</v>
+      </c>
+      <c r="E146" s="1">
+        <f t="shared" si="4"/>
+        <v>0.37640449438202245</v>
+      </c>
+      <c r="F146" s="1">
+        <f>301/1000</f>
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G146" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5404494382022458E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>32</v>
+      </c>
+      <c r="D147">
+        <v>178</v>
+      </c>
+      <c r="E147" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1797752808988764</v>
+      </c>
+      <c r="F147" s="1">
+        <f>176/1000</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G147" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7752808988764097E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>17</v>
+      </c>
+      <c r="D148">
+        <v>178</v>
+      </c>
+      <c r="E148" s="1">
+        <f t="shared" si="4"/>
+        <v>9.5505617977528087E-2</v>
+      </c>
+      <c r="F148" s="1">
+        <f>125/1000</f>
+        <v>0.125</v>
+      </c>
+      <c r="G148" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.9494382022471913E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>15</v>
+      </c>
+      <c r="D149">
+        <v>178</v>
+      </c>
+      <c r="E149" s="1">
+        <f t="shared" si="4"/>
+        <v>8.4269662921348312E-2</v>
+      </c>
+      <c r="F149" s="1">
+        <f>97/1000</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G149" s="1">
+        <f t="shared" ref="G149:G163" si="5">(E149-F149)</f>
+        <v>-1.2730337078651691E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>178</v>
+      </c>
+      <c r="E150" s="1">
+        <f t="shared" si="4"/>
+        <v>6.741573033707865E-2</v>
+      </c>
+      <c r="F150" s="1">
+        <f>79/1000</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G150" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.1584269662921351E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>178</v>
+      </c>
+      <c r="E151" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3707865168539325E-2</v>
+      </c>
+      <c r="F151" s="1">
+        <f>67/1000</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G151" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.3292134831460679E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>178</v>
+      </c>
+      <c r="E152" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6179775280898875E-2</v>
+      </c>
+      <c r="F152" s="1">
+        <f>58/1000</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G152" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.8202247191011281E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>178</v>
+      </c>
+      <c r="E153" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6179775280898875E-2</v>
+      </c>
+      <c r="F153" s="1">
+        <f>51/1000</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G153" s="1">
+        <f t="shared" si="5"/>
+        <v>5.1797752808988781E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>178</v>
+      </c>
+      <c r="E154" s="1">
+        <f t="shared" si="4"/>
+        <v>5.0561797752808987E-2</v>
+      </c>
+      <c r="F154" s="1">
+        <f>46/1000</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G154" s="1">
         <f t="shared" si="5"/>
         <v>4.5617977528089881E-3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G155:G1048576 G2:G145">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="G164:G1048576 G2:G154">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/15_countries_compared.xlsx
+++ b/15_countries_compared.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aurez\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A4D4DEAA-0365-4657-B47A-2FD6B77347F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1FEB1A89-8F4E-49C0-87B3-C5DAD280FA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28755" yWindow="105" windowWidth="17955" windowHeight="14340"/>
+    <workbookView xWindow="-28800" yWindow="45" windowWidth="17955" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="15_countries_compared" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -530,6 +536,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -575,9 +661,36 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="10" xfId="27" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="11" xfId="27" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="18" borderId="11" xfId="27" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="18" borderId="12" xfId="27" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="27" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="27" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="18" borderId="0" xfId="27" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="18" borderId="14" xfId="27" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="27" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" xfId="27" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="18" borderId="16" xfId="27" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="18" borderId="17" xfId="27" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="26" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="18" borderId="12" xfId="27" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -956,12 +1069,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="10.109375" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -970,4044 +1084,4044 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <f>SUM(C20,C29,C38,C47,C56,C65,C74,C83,C92,C101,C110,C119,C128,C137,C146)</f>
         <v>990</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="14">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="15">
         <f>(C2/D2)</f>
         <v>0.37023186237845923</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="16">
         <f>(E2-F2)</f>
         <v>6.9231862378459241E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="18">
         <f>SUM(C21,C30,C39,C48,C57,C66,C75,C84,C93,C102,C111,C120,C129,C138,C147)</f>
         <v>388</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="18">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="19">
         <f>(C3/D3)</f>
         <v>0.14510097232610322</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="20">
         <f>(E3-F3)</f>
         <v>-3.0899027673896767E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="18">
         <f>SUM(C22,C31,C40,C49,C58,C67,C76,C85,C94,C103,C112,C121,C130,C139,C148)</f>
         <v>231</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="18">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="19">
         <f>(C4/D4)</f>
         <v>8.6387434554973816E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="20">
         <f>(E4-F4)</f>
         <v>-3.8612565445026184E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="18">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="18">
         <f>SUM(C23,C32,C41,C50,C59,C68,C77,C86,C95,C104,C113,C122,C131,C140,C149)</f>
         <v>218</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="18">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="19">
         <f>(C5/D5)</f>
         <v>8.1525804038893049E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="20">
         <f>(E5-F5)</f>
         <v>-1.5474195961106954E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="18">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="18">
         <f>SUM(C24,C33,C42,C51,C60,C69,C78,C87,C96,C105,C114,C123,C132,C141,C150)</f>
         <v>193</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="18">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="19">
         <f>(C6/D6)</f>
         <v>7.2176514584891549E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="20">
         <f>(E6-F6)</f>
         <v>-6.8234854151084517E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="18">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="18">
         <f>SUM(C25,C34,C43,C52,C61,C70,C79,C88,C97,C106,C115,C124,C133,C142,C151)</f>
         <v>176</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="18">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="19">
         <f>(C7/D7)</f>
         <v>6.5818997756170533E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="20">
         <f>(E7-F7)</f>
         <v>-1.1810022438294709E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="18">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="18">
         <f>SUM(C26,C35,C44,C53,C62,C71,C80,C89,C98,C107,C116,C125,C134,C143,C152)</f>
         <v>182</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="18">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="19">
         <f>(C8/D8)</f>
         <v>6.8062827225130892E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="20">
         <f>(E8-F8)</f>
         <v>1.006282722513089E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="18">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="18">
         <f>SUM(C27,C36,C45,C54,C63,C72,C81,C90,C99,C108,C117,C126,C135,C144,C153)</f>
         <v>141</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="18">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="19">
         <f>(C9/D9)</f>
         <v>5.2729992520568439E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="20">
         <f>(E9-F9)</f>
         <v>1.7299925205684422E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="22">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="22">
         <f>SUM(C28,C37,C46,C55,C64,C73,C82,C91,C100,C109,C118,C127,C136,C145,C154)</f>
         <v>155</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="22">
         <f>SUM(C2:C10)</f>
         <v>2674</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="23">
         <f>(C10/D10)</f>
         <v>5.7965594614809275E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="24">
         <f>(E10-F10)</f>
         <v>1.1965594614809276E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>5928</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <f>(C11/D11)</f>
         <v>0.38269851517107811</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <f>(E11-F11)</f>
         <v>8.1698515171078123E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>2707</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <f>(C12/D12)</f>
         <v>0.17475790832795352</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="8">
         <f>(E12-F12)</f>
         <v>-1.2420916720464747E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>1767</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <f>(C13/D13)</f>
         <v>0.11407359586830212</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="8">
         <f>(E13-F13)</f>
         <v>-1.0926404131697875E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>1337</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <f>(C14/D14)</f>
         <v>8.6313750806972234E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="8">
         <f>(E14-F14)</f>
         <v>-1.0686249193027769E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>1019</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <f>(C15/D15)</f>
         <v>6.5784377017430604E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="8">
         <f>(E15-F15)</f>
         <v>-1.3215622982569397E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>854</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <f>(C16/D16)</f>
         <v>5.5132343447385407E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="8">
         <f>(E16-F16)</f>
         <v>-1.1867656552614597E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>714</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <f>(C17/D17)</f>
         <v>4.6094254357650098E-2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="7">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="8">
         <f>(E17-F17)</f>
         <v>-1.1905745642349905E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>8</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>639</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <f>(C18/D18)</f>
         <v>4.1252420916720461E-2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="8">
         <f>(E18-F18)</f>
         <v>-9.7475790832795353E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <v>525</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <f>SUM(C11:C19)</f>
         <v>15490</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="11">
         <f>(C19/D19)</f>
         <v>3.3892834086507423E-2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="11">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="12">
         <f>(E19-F19)</f>
         <v>-1.2107165913492576E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="14">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="14">
         <v>81</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="14">
         <f>SUM(C20:C28)</f>
         <v>197</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="15">
         <f t="shared" ref="E20:E28" si="0">(C20/D20)</f>
         <v>0.41116751269035534</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="26">
         <f>(E20-F20)</f>
         <v>0.11016751269035535</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="18">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="18">
         <v>27</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="18">
         <v>197</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="19">
         <f t="shared" si="0"/>
         <v>0.13705583756345177</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="20">
         <f t="shared" ref="G21:G84" si="1">(E21-F21)</f>
         <v>-3.8944162436548219E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="18">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="18">
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="18">
         <v>197</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="19">
         <f t="shared" si="0"/>
         <v>5.5837563451776651E-2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="20">
         <f t="shared" si="1"/>
         <v>-6.9162436548223349E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="18">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="18">
         <v>13</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="18">
         <v>197</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="19">
         <f t="shared" si="0"/>
         <v>6.5989847715736044E-2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="20">
         <f t="shared" si="1"/>
         <v>-3.1010152284263959E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="18">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="18">
         <v>16</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="18">
         <v>197</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="19">
         <f t="shared" si="0"/>
         <v>8.1218274111675121E-2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="20">
         <f t="shared" si="1"/>
         <v>2.2182741116751198E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="18">
         <v>6</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="18">
         <v>13</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="18">
         <v>197</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="19">
         <f t="shared" si="0"/>
         <v>6.5989847715736044E-2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="20">
         <f t="shared" si="1"/>
         <v>-1.0101522842639599E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="18">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="18">
         <v>11</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="18">
         <v>197</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="19">
         <f t="shared" si="0"/>
         <v>5.5837563451776651E-2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="20">
         <f t="shared" si="1"/>
         <v>-2.1624365482233524E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="18">
         <v>8</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="18">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="18">
         <v>197</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>5.0761421319796954E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="20">
         <f t="shared" si="1"/>
         <v>-2.385786802030429E-4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="22">
         <v>9</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="22">
         <v>15</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="22">
         <v>197</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="23">
         <f t="shared" si="0"/>
         <v>7.6142131979695438E-2</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="24">
         <f t="shared" si="1"/>
         <v>3.0142131979695438E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>80</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <f>SUM(C29:C37)</f>
         <v>181</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
         <f>(C29/D29)</f>
         <v>0.44198895027624308</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="27">
         <f t="shared" si="1"/>
         <v>0.14098895027624309</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>181</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="7">
         <f>(C30/D30)</f>
         <v>4.9723756906077346E-2</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="7">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="8">
         <f t="shared" si="1"/>
         <v>-0.12627624309392266</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>9</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>181</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="7">
         <f>(C31/D31)</f>
         <v>4.9723756906077346E-2</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="7">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="8">
         <f t="shared" si="1"/>
         <v>-7.5276243093922654E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>14</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>181</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="7">
         <f>(C32/D32)</f>
         <v>7.7348066298342538E-2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="7">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="8">
         <f t="shared" si="1"/>
         <v>-1.9651933701657465E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>13</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>181</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <f>(C33/D33)</f>
         <v>7.18232044198895E-2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="7">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="8">
         <f t="shared" si="1"/>
         <v>-7.176795580110501E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>19</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>181</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="7">
         <f>(C34/D34)</f>
         <v>0.10497237569060773</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="7">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="8">
         <f t="shared" si="1"/>
         <v>3.7972375690607726E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>11</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>181</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="7">
         <f>(C35/D35)</f>
         <v>6.0773480662983423E-2</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="7">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="8">
         <f t="shared" si="1"/>
         <v>2.7734806629834199E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>13</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>181</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="7">
         <f>(C36/D36)</f>
         <v>7.18232044198895E-2</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="7">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="8">
         <f t="shared" si="1"/>
         <v>2.0823204419889503E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="10">
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <v>13</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="10">
         <v>181</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="11">
         <f>(C37/D37)</f>
         <v>7.18232044198895E-2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="11">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="12">
         <f t="shared" si="1"/>
         <v>2.5823204419889501E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="14">
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="14">
         <v>52</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="14">
         <f>SUM(C38:C46)</f>
         <v>178</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="15">
         <f>(C38/D38)</f>
         <v>0.29213483146067415</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="16">
         <f t="shared" si="1"/>
         <v>-8.8651685393258406E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="18">
         <v>2</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="18">
         <v>18</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="18">
         <v>178</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="19">
         <f t="shared" ref="E39:E102" si="2">(C39/D39)</f>
         <v>0.10112359550561797</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="20">
         <f t="shared" si="1"/>
         <v>-7.4876404494382015E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="18">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="18">
         <v>25</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="18">
         <v>178</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="19">
         <f t="shared" si="2"/>
         <v>0.1404494382022472</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="20">
         <f t="shared" si="1"/>
         <v>1.5449438202247201E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="18">
         <v>4</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="18">
         <v>20</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="18">
         <v>178</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="19">
         <f t="shared" si="2"/>
         <v>0.11235955056179775</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="20">
         <f t="shared" si="1"/>
         <v>1.5359550561797747E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="18">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="18">
         <v>13</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="18">
         <v>178</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="19">
         <f t="shared" si="2"/>
         <v>7.3033707865168537E-2</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="20">
         <f t="shared" si="1"/>
         <v>-5.9662921348314635E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="18">
         <v>6</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="18">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="18">
         <v>178</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="19">
         <f t="shared" si="2"/>
         <v>5.6179775280898875E-2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="20">
         <f t="shared" si="1"/>
         <v>-1.0820224719101129E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="18">
         <v>7</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="18">
         <v>11</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="18">
         <v>178</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="19">
         <f t="shared" si="2"/>
         <v>6.1797752808988762E-2</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="20">
         <f t="shared" si="1"/>
         <v>3.7977528089887594E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="18">
         <v>8</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="18">
         <v>13</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="18">
         <v>178</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="19">
         <f t="shared" si="2"/>
         <v>7.3033707865168537E-2</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="20">
         <f t="shared" si="1"/>
         <v>2.2033707865168541E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="22">
         <v>9</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="22">
         <v>16</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="22">
         <v>178</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="23">
         <f t="shared" si="2"/>
         <v>8.98876404494382E-2</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="24">
         <f t="shared" si="1"/>
         <v>4.3887640449438201E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>33</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <f>SUM(C47:C55)</f>
         <v>178</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
         <f t="shared" si="2"/>
         <v>0.1853932584269663</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="4">
         <f t="shared" si="1"/>
         <v>-0.11560674157303369</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>2</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>28</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>178</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="7">
         <f t="shared" si="2"/>
         <v>0.15730337078651685</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="7">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="8">
         <f t="shared" si="1"/>
         <v>-1.869662921348314E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>3</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="6">
         <v>18</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <v>178</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="7">
         <f t="shared" si="2"/>
         <v>0.10112359550561797</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="7">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="8">
         <f t="shared" si="1"/>
         <v>-2.3876404494382025E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
         <v>4</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>20</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>278</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="7">
         <f t="shared" si="2"/>
         <v>7.1942446043165464E-2</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="7">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="8">
         <f t="shared" si="1"/>
         <v>-2.5057553956834538E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="6">
         <v>16</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="6">
         <v>178</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="7">
         <f t="shared" si="2"/>
         <v>8.98876404494382E-2</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="7">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="8">
         <f t="shared" si="1"/>
         <v>1.0887640449438199E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
         <v>22</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="6">
         <v>178</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="7">
         <f t="shared" si="2"/>
         <v>0.12359550561797752</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="7">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="8">
         <f t="shared" si="1"/>
         <v>5.6595505617977521E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>7</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="6">
         <v>23</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>178</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="7">
         <f t="shared" si="2"/>
         <v>0.12921348314606743</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="7">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="8">
         <f t="shared" si="1"/>
         <v>7.121348314606743E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="6">
         <v>8</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
         <v>13</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="6">
         <v>178</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="7">
         <f t="shared" si="2"/>
         <v>7.3033707865168537E-2</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="7">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="8">
         <f t="shared" si="1"/>
         <v>2.2033707865168541E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="10">
         <v>9</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="10">
         <v>5</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="10">
         <v>178</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="11">
         <f t="shared" si="2"/>
         <v>2.8089887640449437E-2</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="11">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="12">
         <f t="shared" si="1"/>
         <v>-1.7910112359550562E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="14">
         <v>1</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="14">
         <v>64</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="14">
         <f>SUM(C56:C64)</f>
         <v>189</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="15">
         <f t="shared" si="2"/>
         <v>0.33862433862433861</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="16">
         <f t="shared" si="1"/>
         <v>3.7624338624338616E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="18">
         <v>2</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="18">
         <v>28</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="18">
         <v>189</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="19">
         <f t="shared" si="2"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="20">
         <f t="shared" si="1"/>
         <v>-2.785185185185185E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="18">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="18">
         <v>26</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="18">
         <v>189</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="19">
         <f t="shared" si="2"/>
         <v>0.13756613756613756</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="20">
         <f t="shared" si="1"/>
         <v>1.2566137566137559E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="18">
         <v>4</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="18">
         <v>14</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="18">
         <v>189</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="19">
         <f t="shared" si="2"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="20">
         <f t="shared" si="1"/>
         <v>-2.2925925925925933E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="18">
         <v>5</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="18">
         <v>14</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="18">
         <v>189</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="19">
         <f t="shared" si="2"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="20">
         <f t="shared" si="1"/>
         <v>-4.9259259259259308E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="18">
         <v>6</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="18">
         <v>14</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="18">
         <v>189</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="19">
         <f t="shared" si="2"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="20">
         <f t="shared" si="1"/>
         <v>7.074074074074066E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="18">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="18">
         <v>10</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="18">
         <v>189</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="19">
         <f t="shared" si="2"/>
         <v>5.2910052910052907E-2</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="20">
         <f t="shared" si="1"/>
         <v>-5.0899470899470958E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="18">
         <v>8</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="18">
         <v>9</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="18">
         <v>189</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="19">
         <f t="shared" si="2"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="20">
         <f t="shared" si="1"/>
         <v>-3.3809523809523803E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="22">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="22">
         <v>10</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="22">
         <v>189</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="23">
         <f t="shared" si="2"/>
         <v>5.2910052910052907E-2</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="24">
         <f t="shared" si="1"/>
         <v>6.9100529100529079E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>54</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <f>SUM(C65:C73)</f>
         <v>205</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="3">
         <f t="shared" si="2"/>
         <v>0.26341463414634148</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="3">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="4">
         <f t="shared" si="1"/>
         <v>-3.7585365853658514E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>2</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
         <v>21</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="6">
         <v>205</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="7">
         <f t="shared" si="2"/>
         <v>0.1024390243902439</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="7">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="8">
         <f t="shared" si="1"/>
         <v>-7.3560975609756094E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="6">
         <v>3</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="6">
         <v>19</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="6">
         <v>205</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="7">
         <f t="shared" si="2"/>
         <v>9.2682926829268292E-2</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="7">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="8">
         <f t="shared" si="1"/>
         <v>-3.2317073170731708E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="6">
         <v>4</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="6">
         <v>25</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="6">
         <v>205</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="7">
         <f t="shared" si="2"/>
         <v>0.12195121951219512</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="7">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="8">
         <f t="shared" si="1"/>
         <v>2.4951219512195116E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="6">
         <v>5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="6">
         <v>23</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>205</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="7">
         <f t="shared" si="2"/>
         <v>0.11219512195121951</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="7">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="8">
         <f t="shared" si="1"/>
         <v>3.3195121951219514E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="6">
         <v>6</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="6">
         <v>22</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="6">
         <v>205</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="7">
         <f t="shared" si="2"/>
         <v>0.10731707317073171</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="7">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="8">
         <f t="shared" si="1"/>
         <v>4.0317073170731701E-2</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="6">
         <v>7</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="6">
         <v>21</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="6">
         <v>205</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="7">
         <f t="shared" si="2"/>
         <v>0.1024390243902439</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="7">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="8">
         <f t="shared" si="1"/>
         <v>4.4439024390243893E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="6">
         <v>8</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="6">
         <v>11</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="6">
         <v>205</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="7">
         <f t="shared" si="2"/>
         <v>5.3658536585365853E-2</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="7">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="8">
         <f t="shared" si="1"/>
         <v>2.658536585365856E-3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="10">
         <v>9</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="10">
         <v>9</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="10">
         <v>205</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="11">
         <f t="shared" si="2"/>
         <v>4.3902439024390241E-2</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="11">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="12">
         <f t="shared" si="1"/>
         <v>-2.097560975609758E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="14">
         <v>1</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="14">
         <v>51</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="14">
         <f>SUM(C74:C82)</f>
         <v>160</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="15">
         <f t="shared" si="2"/>
         <v>0.31874999999999998</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="16">
         <f t="shared" si="1"/>
         <v>1.7749999999999988E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="18">
         <v>2</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="18">
         <v>36</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="18">
         <v>160</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="19">
         <f t="shared" si="2"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="20">
         <f t="shared" si="1"/>
         <v>4.9000000000000016E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="18">
         <v>3</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="18">
         <v>21</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="18">
         <v>160</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="19">
         <f t="shared" si="2"/>
         <v>0.13125000000000001</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="20">
         <f t="shared" si="1"/>
         <v>6.2500000000000056E-3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="18">
         <v>4</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="18">
         <v>8</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="18">
         <v>160</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="19">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="20">
         <f t="shared" si="1"/>
         <v>-4.7E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="18">
         <v>5</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="18">
         <v>15</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="18">
         <v>160</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="19">
         <f t="shared" si="2"/>
         <v>9.375E-2</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="20">
         <f t="shared" si="1"/>
         <v>1.4749999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="18">
         <v>6</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="18">
         <v>4</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="18">
         <v>160</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="19">
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="20">
         <f t="shared" si="1"/>
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="18">
         <v>7</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="18">
         <v>9</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="18">
         <v>160</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="19">
         <f t="shared" si="2"/>
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="20">
         <f t="shared" si="1"/>
         <v>-1.7500000000000016E-3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="18">
         <v>8</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="18">
         <v>9</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="18">
         <v>160</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="19">
         <f t="shared" si="2"/>
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="20">
         <f t="shared" si="1"/>
         <v>5.2500000000000047E-3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="22">
         <v>9</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="22">
         <v>7</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="22">
         <v>160</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="23">
         <f t="shared" si="2"/>
         <v>4.3749999999999997E-2</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="24">
         <f t="shared" si="1"/>
         <v>-2.250000000000002E-3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>1</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>98</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <f>SUM(C83:C91)</f>
         <v>166</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="3">
         <f t="shared" si="2"/>
         <v>0.59036144578313254</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="3">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="27">
         <f t="shared" si="1"/>
         <v>0.28936144578313255</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="6">
         <v>2</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="6">
         <v>28</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="6">
         <v>166</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="7">
         <f t="shared" si="2"/>
         <v>0.16867469879518071</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="7">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="8">
         <f t="shared" si="1"/>
         <v>-7.3253012048192789E-3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="6">
         <v>3</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="6">
         <v>6</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="6">
         <v>166</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="7">
         <f t="shared" si="2"/>
         <v>3.614457831325301E-2</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="7">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="8">
         <f t="shared" ref="G85:G148" si="3">(E85-F85)</f>
         <v>-8.8855421686746983E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="6">
         <v>4</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="6">
         <v>6</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="6">
         <v>166</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="7">
         <f t="shared" si="2"/>
         <v>3.614457831325301E-2</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="7">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="8">
         <f t="shared" si="3"/>
         <v>-6.0855421686746992E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="6">
         <v>5</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="6">
         <v>7</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="6">
         <v>166</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="7">
         <f t="shared" si="2"/>
         <v>4.2168674698795178E-2</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="7">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="8">
         <f t="shared" si="3"/>
         <v>-3.6831325301204823E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="6">
         <v>6</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="6">
         <v>5</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6">
         <v>166</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="7">
         <f t="shared" si="2"/>
         <v>3.0120481927710843E-2</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="7">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="8">
         <f t="shared" si="3"/>
         <v>-3.6879518072289161E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="6">
         <v>7</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="6">
         <v>5</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="6">
         <v>166</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="7">
         <f t="shared" si="2"/>
         <v>3.0120481927710843E-2</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="7">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="8">
         <f t="shared" si="3"/>
         <v>-2.787951807228916E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="6">
         <v>8</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="6">
         <v>6</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="6">
         <v>166</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="7">
         <f t="shared" si="2"/>
         <v>3.614457831325301E-2</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="7">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="8">
         <f t="shared" si="3"/>
         <v>-1.4855421686746986E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="6">
         <v>9</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="6">
         <v>5</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="6">
         <v>166</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="7">
         <f t="shared" si="2"/>
         <v>3.0120481927710843E-2</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="7">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="8">
         <f t="shared" si="3"/>
         <v>-1.5879518072289156E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="A92" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="14">
         <v>1</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="14">
         <v>35</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="14">
         <f>SUM(C92:C100)</f>
         <v>155</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="15">
         <f t="shared" si="2"/>
         <v>0.22580645161290322</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92" s="16">
         <f t="shared" si="3"/>
         <v>-7.519354838709677E-2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="18">
         <v>2</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="18">
         <v>30</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="18">
         <v>155</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="19">
         <f t="shared" si="2"/>
         <v>0.19354838709677419</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="20">
         <f t="shared" si="3"/>
         <v>1.7548387096774198E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="18">
         <v>3</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="18">
         <v>20</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="18">
         <v>155</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="19">
         <f t="shared" si="2"/>
         <v>0.12903225806451613</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="20">
         <f t="shared" si="3"/>
         <v>4.0322580645161255E-3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="18">
         <v>4</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="18">
         <v>17</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="18">
         <v>155</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="19">
         <f t="shared" si="2"/>
         <v>0.10967741935483871</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="20">
         <f t="shared" si="3"/>
         <v>1.2677419354838709E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="18">
         <v>5</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="18">
         <v>14</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="18">
         <v>155</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="19">
         <f t="shared" si="2"/>
         <v>9.0322580645161285E-2</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="20">
         <f t="shared" si="3"/>
         <v>1.1322580645161284E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="18">
         <v>6</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="18">
         <v>10</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="18">
         <v>155</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="19">
         <f t="shared" si="2"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="20">
         <f t="shared" si="3"/>
         <v>-2.4838709677419413E-3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="18">
         <v>7</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="18">
         <v>15</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="18">
         <v>155</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="19">
         <f t="shared" si="2"/>
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="20">
         <f t="shared" si="3"/>
         <v>3.8774193548387091E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="18">
         <v>8</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="18">
         <v>6</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="18">
         <v>155</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="19">
         <f t="shared" si="2"/>
         <v>3.870967741935484E-2</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="20">
         <f t="shared" si="3"/>
         <v>-1.2290322580645156E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="22">
         <v>9</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="22">
         <v>8</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="22">
         <v>155</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="23">
         <f t="shared" si="2"/>
         <v>5.1612903225806452E-2</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100" s="24">
         <f t="shared" si="3"/>
         <v>5.6129032258064523E-3</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="6">
         <v>1</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="6">
         <v>111</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="6">
         <f>SUM(C101:C109)</f>
         <v>207</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="7">
         <f t="shared" si="2"/>
         <v>0.53623188405797106</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="7">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101" s="28">
         <f t="shared" si="3"/>
         <v>0.23523188405797107</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="6">
         <v>2</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="6">
         <v>20</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="6">
         <v>207</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="7">
         <f t="shared" si="2"/>
         <v>9.6618357487922704E-2</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="7">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102" s="8">
         <f t="shared" si="3"/>
         <v>-7.9381642512077286E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="6">
         <v>3</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="6">
         <v>4</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="6">
         <v>207</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="7">
         <f t="shared" ref="E103:E164" si="4">(C103/D103)</f>
         <v>1.932367149758454E-2</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="7">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="8">
         <f t="shared" si="3"/>
         <v>-0.10567632850241546</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="6">
         <v>4</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="6">
         <v>9</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="6">
         <v>207</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="7">
         <f t="shared" si="4"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="7">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104" s="8">
         <f t="shared" si="3"/>
         <v>-5.3521739130434787E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="6">
         <v>5</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="6">
         <v>13</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="6">
         <v>207</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="7">
         <f t="shared" si="4"/>
         <v>6.280193236714976E-2</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="7">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105" s="8">
         <f t="shared" si="3"/>
         <v>-1.6198067632850241E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="6">
         <v>6</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="6">
         <v>14</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="6">
         <v>207</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="7">
         <f t="shared" si="4"/>
         <v>6.7632850241545889E-2</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="7">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="8">
         <f t="shared" si="3"/>
         <v>6.3285024154588476E-4</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="6">
         <v>7</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="6">
         <v>17</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="6">
         <v>207</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="7">
         <f t="shared" si="4"/>
         <v>8.2125603864734303E-2</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="7">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107" s="8">
         <f t="shared" si="3"/>
         <v>2.41256038647343E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="A108" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="6">
         <v>8</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="6">
         <v>9</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="6">
         <v>207</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="7">
         <f t="shared" si="4"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="7">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108" s="8">
         <f t="shared" si="3"/>
         <v>-7.5217391304347805E-3</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="10">
         <v>9</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="10">
         <v>10</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="10">
         <v>207</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="11">
         <f t="shared" si="4"/>
         <v>4.8309178743961352E-2</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="11">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109" s="12">
         <f t="shared" si="3"/>
         <v>2.3091787439613529E-3</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="A110" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="14">
         <v>1</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="14">
         <v>52</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="14">
         <f>SUM(C110:C118)</f>
         <v>172</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="15">
         <f t="shared" si="4"/>
         <v>0.30232558139534882</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110" s="16">
         <f t="shared" si="3"/>
         <v>1.3255813953488293E-3</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="A111" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="18">
         <v>2</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="18">
         <v>53</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="18">
         <v>172</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="19">
         <f t="shared" si="4"/>
         <v>0.30813953488372092</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111" s="20">
         <f t="shared" si="3"/>
         <v>0.13213953488372093</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="A112" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="18">
         <v>3</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="18">
         <v>27</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="18">
         <v>172</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="19">
         <f t="shared" si="4"/>
         <v>0.15697674418604651</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112" s="20">
         <f t="shared" si="3"/>
         <v>3.1976744186046513E-2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="A113" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="18">
         <v>4</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="18">
         <v>12</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="18">
         <v>172</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="19">
         <f t="shared" si="4"/>
         <v>6.9767441860465115E-2</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113" s="20">
         <f t="shared" si="3"/>
         <v>-2.7232558139534888E-2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="A114" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="18">
         <v>5</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="18">
         <v>5</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="18">
         <v>172</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="19">
         <f t="shared" si="4"/>
         <v>2.9069767441860465E-2</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="20">
         <f t="shared" si="3"/>
         <v>-4.993023255813954E-2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="18">
         <v>6</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="18">
         <v>6</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="18">
         <v>172</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="19">
         <f t="shared" si="4"/>
         <v>3.4883720930232558E-2</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115" s="20">
         <f t="shared" si="3"/>
         <v>-3.2116279069767446E-2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="A116" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="18">
         <v>7</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="18">
         <v>5</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="18">
         <v>172</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="19">
         <f t="shared" si="4"/>
         <v>2.9069767441860465E-2</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116" s="20">
         <f t="shared" si="3"/>
         <v>-2.8930232558139538E-2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="A117" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="18">
         <v>8</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="18">
         <v>4</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="18">
         <v>172</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="19">
         <f t="shared" si="4"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117" s="20">
         <f t="shared" si="3"/>
         <v>-2.7744186046511625E-2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="A118" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="22">
         <v>9</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="22">
         <v>8</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="22">
         <v>172</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="23">
         <f t="shared" si="4"/>
         <v>4.6511627906976744E-2</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118" s="24">
         <f t="shared" si="3"/>
         <v>5.1162790697674432E-4</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>106</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <f>SUM(C119:C127)</f>
         <v>172</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="3">
         <f t="shared" si="4"/>
         <v>0.61627906976744184</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="3">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119" s="27">
         <f t="shared" si="3"/>
         <v>0.31527906976744186</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="A120" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="6">
         <v>2</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="6">
         <v>9</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="6">
         <v>172</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="7">
         <f t="shared" si="4"/>
         <v>5.232558139534884E-2</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="7">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120" s="8">
         <f t="shared" si="3"/>
         <v>-0.12367441860465114</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="6">
         <v>3</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="6">
         <v>1</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="6">
         <v>172</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="7">
         <f t="shared" si="4"/>
         <v>5.8139534883720929E-3</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="7">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121" s="8">
         <f t="shared" si="3"/>
         <v>-0.11918604651162791</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="6">
         <v>4</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="6">
         <v>8</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="6">
         <v>172</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="7">
         <f t="shared" si="4"/>
         <v>4.6511627906976744E-2</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="7">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122" s="8">
         <f t="shared" si="3"/>
         <v>-5.0488372093023259E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="A123" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="6">
         <v>5</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="6">
         <v>7</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="6">
         <v>172</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="7">
         <f t="shared" si="4"/>
         <v>4.0697674418604654E-2</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="7">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123" s="8">
         <f t="shared" si="3"/>
         <v>-3.8302325581395347E-2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="A124" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="6">
         <v>6</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="6">
         <v>8</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="6">
         <v>172</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="7">
         <f t="shared" si="4"/>
         <v>4.6511627906976744E-2</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="7">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124" s="8">
         <f t="shared" si="3"/>
         <v>-2.048837209302326E-2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="6">
         <v>7</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="6">
         <v>9</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="6">
         <v>172</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="7">
         <f t="shared" si="4"/>
         <v>5.232558139534884E-2</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="7">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="8">
         <f t="shared" si="3"/>
         <v>-5.674418604651163E-3</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="A126" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="6">
         <v>8</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="6">
         <v>7</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="6">
         <v>172</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="7">
         <f t="shared" si="4"/>
         <v>4.0697674418604654E-2</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="7">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="8">
         <f t="shared" si="3"/>
         <v>-1.0302325581395343E-2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="A127" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="10">
         <v>9</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="10">
         <v>17</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="10">
         <v>172</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="11">
         <f t="shared" si="4"/>
         <v>9.8837209302325577E-2</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="11">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127" s="12">
         <f t="shared" si="3"/>
         <v>5.2837209302325577E-2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="A128" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="14">
         <v>1</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="14">
         <v>64</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="14">
         <f>SUM(C128:C136)</f>
         <v>161</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="15">
         <f t="shared" si="4"/>
         <v>0.39751552795031053</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128" s="16">
         <f t="shared" si="3"/>
         <v>9.6515527950310542E-2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="A129" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="18">
         <v>2</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="18">
         <v>27</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="18">
         <v>161</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="19">
         <f t="shared" si="4"/>
         <v>0.16770186335403728</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129" s="20">
         <f t="shared" si="3"/>
         <v>-8.2981366459627115E-3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="A130" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="18">
         <v>3</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="18">
         <v>13</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="18">
         <v>161</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="19">
         <f t="shared" si="4"/>
         <v>8.0745341614906832E-2</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130" s="20">
         <f t="shared" si="3"/>
         <v>-4.4254658385093168E-2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="A131" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="18">
         <v>4</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="18">
         <v>15</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="18">
         <v>161</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="19">
         <f t="shared" si="4"/>
         <v>9.3167701863354033E-2</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G131" s="1">
+      <c r="G131" s="20">
         <f t="shared" si="3"/>
         <v>-3.8322981366459702E-3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="A132" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="18">
         <v>5</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="18">
         <v>9</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="18">
         <v>161</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="19">
         <f t="shared" si="4"/>
         <v>5.5900621118012424E-2</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G132" s="1">
+      <c r="G132" s="20">
         <f t="shared" si="3"/>
         <v>-2.3099378881987577E-2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="A133" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="18">
         <v>6</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="18">
         <v>5</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="18">
         <v>161</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="19">
         <f t="shared" si="4"/>
         <v>3.1055900621118012E-2</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133" s="20">
         <f t="shared" si="3"/>
         <v>-3.5944099378881988E-2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="A134" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="18">
         <v>7</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="18">
         <v>11</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="18">
         <v>161</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="19">
         <f t="shared" si="4"/>
         <v>6.8322981366459631E-2</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134" s="20">
         <f t="shared" si="3"/>
         <v>1.0322981366459628E-2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="A135" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="18">
         <v>8</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="18">
         <v>11</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="18">
         <v>161</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="19">
         <f t="shared" si="4"/>
         <v>6.8322981366459631E-2</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135" s="20">
         <f t="shared" si="3"/>
         <v>1.7322981366459635E-2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="A136" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="22">
         <v>9</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="22">
         <v>6</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="22">
         <v>161</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="23">
         <f t="shared" si="4"/>
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136" s="24">
         <f t="shared" si="3"/>
         <v>-8.7329192546583834E-3</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
         <v>1</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>42</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <f>SUM(C137:C145)</f>
         <v>175</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="3">
         <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="3">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137" s="4">
         <f t="shared" si="3"/>
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="A138" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="6">
         <v>2</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="6">
         <v>22</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="6">
         <v>175</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="7">
         <f t="shared" si="4"/>
         <v>0.12571428571428572</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="7">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G138" s="8">
         <f t="shared" si="3"/>
         <v>-5.0285714285714267E-2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="A139" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="6">
         <v>3</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="6">
         <v>14</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="6">
         <v>175</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="7">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="7">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139" s="8">
         <f t="shared" si="3"/>
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="A140" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="6">
         <v>4</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="6">
         <v>22</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="6">
         <v>175</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="7">
         <f t="shared" si="4"/>
         <v>0.12571428571428572</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="7">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140" s="8">
         <f t="shared" si="3"/>
         <v>2.871428571428572E-2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="A141" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="6">
         <v>5</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="6">
         <v>16</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="6">
         <v>175</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="7">
         <f t="shared" si="4"/>
         <v>9.1428571428571428E-2</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="7">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G141" s="8">
         <f t="shared" si="3"/>
         <v>1.2428571428571428E-2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="A142" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="6">
         <v>6</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="6">
         <v>18</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="6">
         <v>175</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="7">
         <f t="shared" si="4"/>
         <v>0.10285714285714286</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="7">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G142" s="8">
         <f t="shared" si="3"/>
         <v>3.5857142857142851E-2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="A143" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="6">
         <v>7</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="6">
         <v>14</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="6">
         <v>175</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="7">
         <f t="shared" si="4"/>
         <v>0.08</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="7">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="8">
         <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="A144" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="6">
         <v>8</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="6">
         <v>10</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="6">
         <v>175</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="7">
         <f t="shared" si="4"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="7">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144" s="8">
         <f t="shared" si="3"/>
         <v>6.1428571428571443E-3</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="A145" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="10">
         <v>9</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="10">
         <v>17</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="10">
         <v>175</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="11">
         <f t="shared" si="4"/>
         <v>9.7142857142857142E-2</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="11">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145" s="12">
         <f t="shared" si="3"/>
         <v>5.1142857142857143E-2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="A146" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="14">
         <v>1</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="14">
         <v>67</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="14">
         <f>SUM(C146:C154)</f>
         <v>178</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="15">
         <f t="shared" si="4"/>
         <v>0.37640449438202245</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="15">
         <f>301/1000</f>
         <v>0.30099999999999999</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146" s="16">
         <f t="shared" si="3"/>
         <v>7.5404494382022458E-2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="A147" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="18">
         <v>2</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="18">
         <v>32</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="18">
         <v>178</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="19">
         <f t="shared" si="4"/>
         <v>0.1797752808988764</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="19">
         <f>176/1000</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147" s="20">
         <f t="shared" si="3"/>
         <v>3.7752808988764097E-3</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="A148" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="18">
         <v>3</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="18">
         <v>17</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="18">
         <v>178</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="19">
         <f t="shared" si="4"/>
         <v>9.5505617977528087E-2</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="19">
         <f>125/1000</f>
         <v>0.125</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148" s="20">
         <f t="shared" si="3"/>
         <v>-2.9494382022471913E-2</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="A149" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="18">
         <v>4</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="18">
         <v>15</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="18">
         <v>178</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="19">
         <f t="shared" si="4"/>
         <v>8.4269662921348312E-2</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="19">
         <f>97/1000</f>
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149" s="20">
         <f t="shared" ref="G149:G163" si="5">(E149-F149)</f>
         <v>-1.2730337078651691E-2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="A150" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="18">
         <v>5</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="18">
         <v>12</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="18">
         <v>178</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="19">
         <f t="shared" si="4"/>
         <v>6.741573033707865E-2</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="19">
         <f>79/1000</f>
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150" s="20">
         <f t="shared" si="5"/>
         <v>-1.1584269662921351E-2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="A151" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="18">
         <v>6</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="18">
         <v>6</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="18">
         <v>178</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="19">
         <f t="shared" si="4"/>
         <v>3.3707865168539325E-2</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="19">
         <f>67/1000</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G151" s="20">
         <f t="shared" si="5"/>
         <v>-3.3292134831460679E-2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="A152" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="18">
         <v>7</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="18">
         <v>10</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="18">
         <v>178</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="19">
         <f t="shared" si="4"/>
         <v>5.6179775280898875E-2</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="19">
         <f>58/1000</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G152" s="20">
         <f t="shared" si="5"/>
         <v>-1.8202247191011281E-3</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="A153" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="18">
         <v>8</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="18">
         <v>10</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="18">
         <v>178</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="19">
         <f t="shared" si="4"/>
         <v>5.6179775280898875E-2</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="19">
         <f>51/1000</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153" s="20">
         <f t="shared" si="5"/>
         <v>5.1797752808988781E-3</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="A154" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="22">
         <v>9</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="22">
         <v>9</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="22">
         <v>178</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="23">
         <f t="shared" si="4"/>
         <v>5.0561797752808987E-2</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="23">
         <f>46/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154" s="24">
         <f t="shared" si="5"/>
         <v>4.5617977528089881E-3</v>
       </c>

--- a/15_countries_compared.xlsx
+++ b/15_countries_compared.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aurez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\college classes\vis\CSCI-426-Covid19-Benford-Law-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1FEB1A89-8F4E-49C0-87B3-C5DAD280FA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFA910D-AB32-43C8-9C52-EA106C1A66AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="45" windowWidth="17955" windowHeight="14340"/>
+    <workbookView xWindow="-28920" yWindow="4785" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15_countries_compared" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,7 +746,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1066,24 +1096,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
@@ -1114,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14">
-        <f>SUM(C20,C29,C38,C47,C56,C65,C74,C83,C92,C101,C110,C119,C128,C137,C146)</f>
+        <f t="shared" ref="C2:C10" si="0">SUM(C20,C29,C38,C47,C56,C65,C74,C83,C92,C101,C110,C119,C128,C137,C146)</f>
         <v>990</v>
       </c>
       <c r="D2" s="14">
@@ -1122,7 +1152,7 @@
         <v>2674</v>
       </c>
       <c r="E2" s="15">
-        <f>(C2/D2)</f>
+        <f t="shared" ref="E2:E19" si="1">(C2/D2)</f>
         <v>0.37023186237845923</v>
       </c>
       <c r="F2" s="15">
@@ -1130,11 +1160,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G2" s="16">
-        <f>(E2-F2)</f>
+        <f t="shared" ref="G2:G20" si="2">(E2-F2)</f>
         <v>6.9231862378459241E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="17" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18">
-        <f>SUM(C21,C30,C39,C48,C57,C66,C75,C84,C93,C102,C111,C120,C129,C138,C147)</f>
+        <f t="shared" si="0"/>
         <v>388</v>
       </c>
       <c r="D3" s="18">
@@ -1150,7 +1180,7 @@
         <v>2674</v>
       </c>
       <c r="E3" s="19">
-        <f>(C3/D3)</f>
+        <f t="shared" si="1"/>
         <v>0.14510097232610322</v>
       </c>
       <c r="F3" s="19">
@@ -1158,11 +1188,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G3" s="20">
-        <f>(E3-F3)</f>
+        <f t="shared" si="2"/>
         <v>-3.0899027673896767E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>23</v>
       </c>
@@ -1170,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="18">
-        <f>SUM(C22,C31,C40,C49,C58,C67,C76,C85,C94,C103,C112,C121,C130,C139,C148)</f>
+        <f t="shared" si="0"/>
         <v>231</v>
       </c>
       <c r="D4" s="18">
@@ -1178,7 +1208,7 @@
         <v>2674</v>
       </c>
       <c r="E4" s="19">
-        <f>(C4/D4)</f>
+        <f t="shared" si="1"/>
         <v>8.6387434554973816E-2</v>
       </c>
       <c r="F4" s="19">
@@ -1186,11 +1216,11 @@
         <v>0.125</v>
       </c>
       <c r="G4" s="20">
-        <f>(E4-F4)</f>
+        <f t="shared" si="2"/>
         <v>-3.8612565445026184E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="18">
-        <f>SUM(C23,C32,C41,C50,C59,C68,C77,C86,C95,C104,C113,C122,C131,C140,C149)</f>
+        <f t="shared" si="0"/>
         <v>218</v>
       </c>
       <c r="D5" s="18">
@@ -1206,7 +1236,7 @@
         <v>2674</v>
       </c>
       <c r="E5" s="19">
-        <f>(C5/D5)</f>
+        <f t="shared" si="1"/>
         <v>8.1525804038893049E-2</v>
       </c>
       <c r="F5" s="19">
@@ -1214,11 +1244,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G5" s="20">
-        <f>(E5-F5)</f>
+        <f t="shared" si="2"/>
         <v>-1.5474195961106954E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="18">
-        <f>SUM(C24,C33,C42,C51,C60,C69,C78,C87,C96,C105,C114,C123,C132,C141,C150)</f>
+        <f t="shared" si="0"/>
         <v>193</v>
       </c>
       <c r="D6" s="18">
@@ -1234,7 +1264,7 @@
         <v>2674</v>
       </c>
       <c r="E6" s="19">
-        <f>(C6/D6)</f>
+        <f t="shared" si="1"/>
         <v>7.2176514584891549E-2</v>
       </c>
       <c r="F6" s="19">
@@ -1242,11 +1272,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G6" s="20">
-        <f>(E6-F6)</f>
+        <f t="shared" si="2"/>
         <v>-6.8234854151084517E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="18">
-        <f>SUM(C25,C34,C43,C52,C61,C70,C79,C88,C97,C106,C115,C124,C133,C142,C151)</f>
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="D7" s="18">
@@ -1262,7 +1292,7 @@
         <v>2674</v>
       </c>
       <c r="E7" s="19">
-        <f>(C7/D7)</f>
+        <f t="shared" si="1"/>
         <v>6.5818997756170533E-2</v>
       </c>
       <c r="F7" s="19">
@@ -1270,11 +1300,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G7" s="20">
-        <f>(E7-F7)</f>
+        <f t="shared" si="2"/>
         <v>-1.1810022438294709E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="18">
-        <f>SUM(C26,C35,C44,C53,C62,C71,C80,C89,C98,C107,C116,C125,C134,C143,C152)</f>
+        <f t="shared" si="0"/>
         <v>182</v>
       </c>
       <c r="D8" s="18">
@@ -1290,7 +1320,7 @@
         <v>2674</v>
       </c>
       <c r="E8" s="19">
-        <f>(C8/D8)</f>
+        <f t="shared" si="1"/>
         <v>6.8062827225130892E-2</v>
       </c>
       <c r="F8" s="19">
@@ -1298,11 +1328,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G8" s="20">
-        <f>(E8-F8)</f>
+        <f t="shared" si="2"/>
         <v>1.006282722513089E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
@@ -1310,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="18">
-        <f>SUM(C27,C36,C45,C54,C63,C72,C81,C90,C99,C108,C117,C126,C135,C144,C153)</f>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="D9" s="18">
@@ -1318,7 +1348,7 @@
         <v>2674</v>
       </c>
       <c r="E9" s="19">
-        <f>(C9/D9)</f>
+        <f t="shared" si="1"/>
         <v>5.2729992520568439E-2</v>
       </c>
       <c r="F9" s="19">
@@ -1326,11 +1356,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G9" s="20">
-        <f>(E9-F9)</f>
+        <f t="shared" si="2"/>
         <v>1.7299925205684422E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="22">
-        <f>SUM(C28,C37,C46,C55,C64,C73,C82,C91,C100,C109,C118,C127,C136,C145,C154)</f>
+        <f t="shared" si="0"/>
         <v>155</v>
       </c>
       <c r="D10" s="22">
@@ -1346,7 +1376,7 @@
         <v>2674</v>
       </c>
       <c r="E10" s="23">
-        <f>(C10/D10)</f>
+        <f t="shared" si="1"/>
         <v>5.7965594614809275E-2</v>
       </c>
       <c r="F10" s="23">
@@ -1354,11 +1384,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G10" s="24">
-        <f>(E10-F10)</f>
+        <f t="shared" si="2"/>
         <v>1.1965594614809276E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1403,7 @@
         <v>15490</v>
       </c>
       <c r="E11" s="3">
-        <f>(C11/D11)</f>
+        <f t="shared" si="1"/>
         <v>0.38269851517107811</v>
       </c>
       <c r="F11" s="3">
@@ -1381,11 +1411,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G11" s="4">
-        <f>(E11-F11)</f>
+        <f t="shared" si="2"/>
         <v>8.1698515171078123E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1430,7 @@
         <v>15490</v>
       </c>
       <c r="E12" s="7">
-        <f>(C12/D12)</f>
+        <f t="shared" si="1"/>
         <v>0.17475790832795352</v>
       </c>
       <c r="F12" s="7">
@@ -1408,11 +1438,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G12" s="8">
-        <f>(E12-F12)</f>
+        <f t="shared" si="2"/>
         <v>-1.2420916720464747E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1427,7 +1457,7 @@
         <v>15490</v>
       </c>
       <c r="E13" s="7">
-        <f>(C13/D13)</f>
+        <f t="shared" si="1"/>
         <v>0.11407359586830212</v>
       </c>
       <c r="F13" s="7">
@@ -1435,11 +1465,11 @@
         <v>0.125</v>
       </c>
       <c r="G13" s="8">
-        <f>(E13-F13)</f>
+        <f t="shared" si="2"/>
         <v>-1.0926404131697875E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1454,7 +1484,7 @@
         <v>15490</v>
       </c>
       <c r="E14" s="7">
-        <f>(C14/D14)</f>
+        <f t="shared" si="1"/>
         <v>8.6313750806972234E-2</v>
       </c>
       <c r="F14" s="7">
@@ -1462,11 +1492,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G14" s="8">
-        <f>(E14-F14)</f>
+        <f t="shared" si="2"/>
         <v>-1.0686249193027769E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1511,7 @@
         <v>15490</v>
       </c>
       <c r="E15" s="7">
-        <f>(C15/D15)</f>
+        <f t="shared" si="1"/>
         <v>6.5784377017430604E-2</v>
       </c>
       <c r="F15" s="7">
@@ -1489,11 +1519,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G15" s="8">
-        <f>(E15-F15)</f>
+        <f t="shared" si="2"/>
         <v>-1.3215622982569397E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1538,7 @@
         <v>15490</v>
       </c>
       <c r="E16" s="7">
-        <f>(C16/D16)</f>
+        <f t="shared" si="1"/>
         <v>5.5132343447385407E-2</v>
       </c>
       <c r="F16" s="7">
@@ -1516,11 +1546,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G16" s="8">
-        <f>(E16-F16)</f>
+        <f t="shared" si="2"/>
         <v>-1.1867656552614597E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1565,7 @@
         <v>15490</v>
       </c>
       <c r="E17" s="7">
-        <f>(C17/D17)</f>
+        <f t="shared" si="1"/>
         <v>4.6094254357650098E-2</v>
       </c>
       <c r="F17" s="7">
@@ -1543,11 +1573,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G17" s="8">
-        <f>(E17-F17)</f>
+        <f t="shared" si="2"/>
         <v>-1.1905745642349905E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1592,7 @@
         <v>15490</v>
       </c>
       <c r="E18" s="7">
-        <f>(C18/D18)</f>
+        <f t="shared" si="1"/>
         <v>4.1252420916720461E-2</v>
       </c>
       <c r="F18" s="7">
@@ -1570,11 +1600,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G18" s="8">
-        <f>(E18-F18)</f>
+        <f t="shared" si="2"/>
         <v>-9.7475790832795353E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -1589,7 +1619,7 @@
         <v>15490</v>
       </c>
       <c r="E19" s="11">
-        <f>(C19/D19)</f>
+        <f t="shared" si="1"/>
         <v>3.3892834086507423E-2</v>
       </c>
       <c r="F19" s="11">
@@ -1597,11 +1627,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G19" s="12">
-        <f>(E19-F19)</f>
+        <f t="shared" si="2"/>
         <v>-1.2107165913492576E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
@@ -1616,7 +1646,7 @@
         <v>197</v>
       </c>
       <c r="E20" s="15">
-        <f t="shared" ref="E20:E28" si="0">(C20/D20)</f>
+        <f t="shared" ref="E20:E28" si="3">(C20/D20)</f>
         <v>0.41116751269035534</v>
       </c>
       <c r="F20" s="15">
@@ -1624,11 +1654,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G20" s="26">
-        <f>(E20-F20)</f>
+        <f t="shared" si="2"/>
         <v>0.11016751269035535</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="17" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1672,7 @@
         <v>197</v>
       </c>
       <c r="E21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13705583756345177</v>
       </c>
       <c r="F21" s="19">
@@ -1650,11 +1680,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" ref="G21:G84" si="1">(E21-F21)</f>
+        <f t="shared" ref="G21:G84" si="4">(E21-F21)</f>
         <v>-3.8944162436548219E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>3</v>
       </c>
@@ -1668,7 +1698,7 @@
         <v>197</v>
       </c>
       <c r="E22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.5837563451776651E-2</v>
       </c>
       <c r="F22" s="19">
@@ -1676,11 +1706,11 @@
         <v>0.125</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6.9162436548223349E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +1724,7 @@
         <v>197</v>
       </c>
       <c r="E23" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.5989847715736044E-2</v>
       </c>
       <c r="F23" s="19">
@@ -1702,11 +1732,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G23" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.1010152284263959E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1750,7 @@
         <v>197</v>
       </c>
       <c r="E24" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.1218274111675121E-2</v>
       </c>
       <c r="F24" s="19">
@@ -1728,11 +1758,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2182741116751198E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +1776,7 @@
         <v>197</v>
       </c>
       <c r="E25" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.5989847715736044E-2</v>
       </c>
       <c r="F25" s="19">
@@ -1754,11 +1784,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G25" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.0101522842639599E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1802,7 @@
         <v>197</v>
       </c>
       <c r="E26" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.5837563451776651E-2</v>
       </c>
       <c r="F26" s="19">
@@ -1780,11 +1810,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.1624365482233524E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
         <v>3</v>
       </c>
@@ -1798,7 +1828,7 @@
         <v>197</v>
       </c>
       <c r="E27" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.0761421319796954E-2</v>
       </c>
       <c r="F27" s="19">
@@ -1806,11 +1836,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.385786802030429E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1854,7 @@
         <v>197</v>
       </c>
       <c r="E28" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.6142131979695438E-2</v>
       </c>
       <c r="F28" s="23">
@@ -1832,11 +1862,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G28" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.0142131979695438E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1851,7 +1881,7 @@
         <v>181</v>
       </c>
       <c r="E29" s="3">
-        <f>(C29/D29)</f>
+        <f t="shared" ref="E29:E38" si="5">(C29/D29)</f>
         <v>0.44198895027624308</v>
       </c>
       <c r="F29" s="3">
@@ -1859,11 +1889,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G29" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.14098895027624309</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +1907,7 @@
         <v>181</v>
       </c>
       <c r="E30" s="7">
-        <f>(C30/D30)</f>
+        <f t="shared" si="5"/>
         <v>4.9723756906077346E-2</v>
       </c>
       <c r="F30" s="7">
@@ -1885,11 +1915,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.12627624309392266</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1903,7 +1933,7 @@
         <v>181</v>
       </c>
       <c r="E31" s="7">
-        <f>(C31/D31)</f>
+        <f t="shared" si="5"/>
         <v>4.9723756906077346E-2</v>
       </c>
       <c r="F31" s="7">
@@ -1911,11 +1941,11 @@
         <v>0.125</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.5276243093922654E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +1959,7 @@
         <v>181</v>
       </c>
       <c r="E32" s="7">
-        <f>(C32/D32)</f>
+        <f t="shared" si="5"/>
         <v>7.7348066298342538E-2</v>
       </c>
       <c r="F32" s="7">
@@ -1937,11 +1967,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.9651933701657465E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1985,7 @@
         <v>181</v>
       </c>
       <c r="E33" s="7">
-        <f>(C33/D33)</f>
+        <f t="shared" si="5"/>
         <v>7.18232044198895E-2</v>
       </c>
       <c r="F33" s="7">
@@ -1963,11 +1993,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.176795580110501E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -1981,7 +2011,7 @@
         <v>181</v>
       </c>
       <c r="E34" s="7">
-        <f>(C34/D34)</f>
+        <f t="shared" si="5"/>
         <v>0.10497237569060773</v>
       </c>
       <c r="F34" s="7">
@@ -1989,11 +2019,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.7972375690607726E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -2007,7 +2037,7 @@
         <v>181</v>
       </c>
       <c r="E35" s="7">
-        <f>(C35/D35)</f>
+        <f t="shared" si="5"/>
         <v>6.0773480662983423E-2</v>
       </c>
       <c r="F35" s="7">
@@ -2015,11 +2045,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7734806629834199E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -2033,7 +2063,7 @@
         <v>181</v>
       </c>
       <c r="E36" s="7">
-        <f>(C36/D36)</f>
+        <f t="shared" si="5"/>
         <v>7.18232044198895E-2</v>
       </c>
       <c r="F36" s="7">
@@ -2041,11 +2071,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.0823204419889503E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
@@ -2059,7 +2089,7 @@
         <v>181</v>
       </c>
       <c r="E37" s="11">
-        <f>(C37/D37)</f>
+        <f t="shared" si="5"/>
         <v>7.18232044198895E-2</v>
       </c>
       <c r="F37" s="11">
@@ -2067,11 +2097,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.5823204419889501E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="13" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2116,7 @@
         <v>178</v>
       </c>
       <c r="E38" s="15">
-        <f>(C38/D38)</f>
+        <f t="shared" si="5"/>
         <v>0.29213483146067415</v>
       </c>
       <c r="F38" s="15">
@@ -2094,11 +2124,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8.8651685393258406E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="17" t="s">
         <v>5</v>
       </c>
@@ -2112,7 +2142,7 @@
         <v>178</v>
       </c>
       <c r="E39" s="19">
-        <f t="shared" ref="E39:E102" si="2">(C39/D39)</f>
+        <f t="shared" ref="E39:E102" si="6">(C39/D39)</f>
         <v>0.10112359550561797</v>
       </c>
       <c r="F39" s="19">
@@ -2120,11 +2150,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.4876404494382015E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
         <v>5</v>
       </c>
@@ -2138,7 +2168,7 @@
         <v>178</v>
       </c>
       <c r="E40" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1404494382022472</v>
       </c>
       <c r="F40" s="19">
@@ -2146,11 +2176,11 @@
         <v>0.125</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5449438202247201E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="17" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2194,7 @@
         <v>178</v>
       </c>
       <c r="E41" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="F41" s="19">
@@ -2172,11 +2202,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5359550561797747E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
         <v>5</v>
       </c>
@@ -2190,7 +2220,7 @@
         <v>178</v>
       </c>
       <c r="E42" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.3033707865168537E-2</v>
       </c>
       <c r="F42" s="19">
@@ -2198,11 +2228,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.9662921348314635E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="17" t="s">
         <v>5</v>
       </c>
@@ -2216,7 +2246,7 @@
         <v>178</v>
       </c>
       <c r="E43" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="F43" s="19">
@@ -2224,11 +2254,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G43" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.0820224719101129E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
         <v>5</v>
       </c>
@@ -2242,7 +2272,7 @@
         <v>178</v>
       </c>
       <c r="E44" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.1797752808988762E-2</v>
       </c>
       <c r="F44" s="19">
@@ -2250,11 +2280,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G44" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.7977528089887594E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="17" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2298,7 @@
         <v>178</v>
       </c>
       <c r="E45" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.3033707865168537E-2</v>
       </c>
       <c r="F45" s="19">
@@ -2276,11 +2306,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G45" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2033707865168541E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="21" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2324,7 @@
         <v>178</v>
       </c>
       <c r="E46" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.98876404494382E-2</v>
       </c>
       <c r="F46" s="23">
@@ -2302,11 +2332,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G46" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.3887640449438201E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -2321,7 +2351,7 @@
         <v>178</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1853932584269663</v>
       </c>
       <c r="F47" s="3">
@@ -2329,11 +2359,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.11560674157303369</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>6</v>
       </c>
@@ -2347,7 +2377,7 @@
         <v>178</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15730337078651685</v>
       </c>
       <c r="F48" s="7">
@@ -2355,11 +2385,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.869662921348314E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>6</v>
       </c>
@@ -2373,7 +2403,7 @@
         <v>178</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10112359550561797</v>
       </c>
       <c r="F49" s="7">
@@ -2381,11 +2411,11 @@
         <v>0.125</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.3876404494382025E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>6</v>
       </c>
@@ -2399,7 +2429,7 @@
         <v>278</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1942446043165464E-2</v>
       </c>
       <c r="F50" s="7">
@@ -2407,11 +2437,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.5057553956834538E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
@@ -2425,7 +2455,7 @@
         <v>178</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.98876404494382E-2</v>
       </c>
       <c r="F51" s="7">
@@ -2433,11 +2463,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0887640449438199E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>6</v>
       </c>
@@ -2451,7 +2481,7 @@
         <v>178</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12359550561797752</v>
       </c>
       <c r="F52" s="7">
@@ -2459,11 +2489,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.6595505617977521E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -2477,7 +2507,7 @@
         <v>178</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12921348314606743</v>
       </c>
       <c r="F53" s="7">
@@ -2485,11 +2515,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G53" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.121348314606743E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2533,7 @@
         <v>178</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.3033707865168537E-2</v>
       </c>
       <c r="F54" s="7">
@@ -2511,11 +2541,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.2033707865168541E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>6</v>
       </c>
@@ -2529,7 +2559,7 @@
         <v>178</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.8089887640449437E-2</v>
       </c>
       <c r="F55" s="11">
@@ -2537,11 +2567,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G55" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.7910112359550562E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +2586,7 @@
         <v>189</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33862433862433861</v>
       </c>
       <c r="F56" s="15">
@@ -2564,11 +2594,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.7624338624338616E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="17" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2612,7 @@
         <v>189</v>
       </c>
       <c r="E57" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="F57" s="19">
@@ -2590,11 +2620,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G57" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.785185185185185E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
         <v>7</v>
       </c>
@@ -2608,7 +2638,7 @@
         <v>189</v>
       </c>
       <c r="E58" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.13756613756613756</v>
       </c>
       <c r="F58" s="19">
@@ -2616,11 +2646,11 @@
         <v>0.125</v>
       </c>
       <c r="G58" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2566137566137559E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="17" t="s">
         <v>7</v>
       </c>
@@ -2634,7 +2664,7 @@
         <v>189</v>
       </c>
       <c r="E59" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F59" s="19">
@@ -2642,11 +2672,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.2925925925925933E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="17" t="s">
         <v>7</v>
       </c>
@@ -2660,7 +2690,7 @@
         <v>189</v>
       </c>
       <c r="E60" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F60" s="19">
@@ -2668,11 +2698,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4.9259259259259308E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="17" t="s">
         <v>7</v>
       </c>
@@ -2686,7 +2716,7 @@
         <v>189</v>
       </c>
       <c r="E61" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="F61" s="19">
@@ -2694,11 +2724,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.074074074074066E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="17" t="s">
         <v>7</v>
       </c>
@@ -2712,7 +2742,7 @@
         <v>189</v>
       </c>
       <c r="E62" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.2910052910052907E-2</v>
       </c>
       <c r="F62" s="19">
@@ -2720,11 +2750,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.0899470899470958E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="17" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2768,7 @@
         <v>189</v>
       </c>
       <c r="E63" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="F63" s="19">
@@ -2746,11 +2776,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.3809523809523803E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="21" t="s">
         <v>7</v>
       </c>
@@ -2764,7 +2794,7 @@
         <v>189</v>
       </c>
       <c r="E64" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.2910052910052907E-2</v>
       </c>
       <c r="F64" s="23">
@@ -2772,11 +2802,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G64" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.9100529100529079E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2821,7 @@
         <v>205</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26341463414634148</v>
       </c>
       <c r="F65" s="3">
@@ -2799,11 +2829,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.7585365853658514E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
@@ -2817,7 +2847,7 @@
         <v>205</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1024390243902439</v>
       </c>
       <c r="F66" s="7">
@@ -2825,11 +2855,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.3560975609756094E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>8</v>
       </c>
@@ -2843,7 +2873,7 @@
         <v>205</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.2682926829268292E-2</v>
       </c>
       <c r="F67" s="7">
@@ -2851,11 +2881,11 @@
         <v>0.125</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.2317073170731708E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>8</v>
       </c>
@@ -2869,7 +2899,7 @@
         <v>205</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12195121951219512</v>
       </c>
       <c r="F68" s="7">
@@ -2877,11 +2907,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.4951219512195116E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>8</v>
       </c>
@@ -2895,7 +2925,7 @@
         <v>205</v>
       </c>
       <c r="E69" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11219512195121951</v>
       </c>
       <c r="F69" s="7">
@@ -2903,11 +2933,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.3195121951219514E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>8</v>
       </c>
@@ -2921,7 +2951,7 @@
         <v>205</v>
       </c>
       <c r="E70" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10731707317073171</v>
       </c>
       <c r="F70" s="7">
@@ -2929,11 +2959,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.0317073170731701E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
@@ -2947,7 +2977,7 @@
         <v>205</v>
       </c>
       <c r="E71" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1024390243902439</v>
       </c>
       <c r="F71" s="7">
@@ -2955,11 +2985,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.4439024390243893E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>8</v>
       </c>
@@ -2973,7 +3003,7 @@
         <v>205</v>
       </c>
       <c r="E72" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.3658536585365853E-2</v>
       </c>
       <c r="F72" s="7">
@@ -2981,11 +3011,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.658536585365856E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="9" t="s">
         <v>8</v>
       </c>
@@ -2999,7 +3029,7 @@
         <v>205</v>
       </c>
       <c r="E73" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.3902439024390241E-2</v>
       </c>
       <c r="F73" s="11">
@@ -3007,11 +3037,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G73" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.097560975609758E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="13" t="s">
         <v>9</v>
       </c>
@@ -3026,7 +3056,7 @@
         <v>160</v>
       </c>
       <c r="E74" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.31874999999999998</v>
       </c>
       <c r="F74" s="15">
@@ -3034,11 +3064,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G74" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.7749999999999988E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="17" t="s">
         <v>9</v>
       </c>
@@ -3052,7 +3082,7 @@
         <v>160</v>
       </c>
       <c r="E75" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="F75" s="19">
@@ -3060,11 +3090,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.9000000000000016E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="17" t="s">
         <v>9</v>
       </c>
@@ -3078,7 +3108,7 @@
         <v>160</v>
       </c>
       <c r="E76" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.13125000000000001</v>
       </c>
       <c r="F76" s="19">
@@ -3086,11 +3116,11 @@
         <v>0.125</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.2500000000000056E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="17" t="s">
         <v>9</v>
       </c>
@@ -3104,7 +3134,7 @@
         <v>160</v>
       </c>
       <c r="E77" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="F77" s="19">
@@ -3112,11 +3142,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="17" t="s">
         <v>9</v>
       </c>
@@ -3130,7 +3160,7 @@
         <v>160</v>
       </c>
       <c r="E78" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.375E-2</v>
       </c>
       <c r="F78" s="19">
@@ -3138,11 +3168,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4749999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="17" t="s">
         <v>9</v>
       </c>
@@ -3156,7 +3186,7 @@
         <v>160</v>
       </c>
       <c r="E79" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F79" s="19">
@@ -3164,11 +3194,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="17" t="s">
         <v>9</v>
       </c>
@@ -3182,7 +3212,7 @@
         <v>160</v>
       </c>
       <c r="E80" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="F80" s="19">
@@ -3190,11 +3220,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G80" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.7500000000000016E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="17" t="s">
         <v>9</v>
       </c>
@@ -3208,7 +3238,7 @@
         <v>160</v>
       </c>
       <c r="E81" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="F81" s="19">
@@ -3216,11 +3246,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G81" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.2500000000000047E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="21" t="s">
         <v>9</v>
       </c>
@@ -3234,7 +3264,7 @@
         <v>160</v>
       </c>
       <c r="E82" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.3749999999999997E-2</v>
       </c>
       <c r="F82" s="23">
@@ -3242,11 +3272,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G82" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.250000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -3261,7 +3291,7 @@
         <v>166</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.59036144578313254</v>
       </c>
       <c r="F83" s="3">
@@ -3269,11 +3299,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G83" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.28936144578313255</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -3287,7 +3317,7 @@
         <v>166</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16867469879518071</v>
       </c>
       <c r="F84" s="7">
@@ -3295,11 +3325,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G84" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.3253012048192789E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>10</v>
       </c>
@@ -3313,7 +3343,7 @@
         <v>166</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.614457831325301E-2</v>
       </c>
       <c r="F85" s="7">
@@ -3321,11 +3351,11 @@
         <v>0.125</v>
       </c>
       <c r="G85" s="8">
-        <f t="shared" ref="G85:G148" si="3">(E85-F85)</f>
+        <f t="shared" ref="G85:G148" si="7">(E85-F85)</f>
         <v>-8.8855421686746983E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>10</v>
       </c>
@@ -3339,7 +3369,7 @@
         <v>166</v>
       </c>
       <c r="E86" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.614457831325301E-2</v>
       </c>
       <c r="F86" s="7">
@@ -3347,11 +3377,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G86" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.0855421686746992E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
@@ -3365,7 +3395,7 @@
         <v>166</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.2168674698795178E-2</v>
       </c>
       <c r="F87" s="7">
@@ -3373,11 +3403,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G87" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.6831325301204823E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>10</v>
       </c>
@@ -3391,7 +3421,7 @@
         <v>166</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.0120481927710843E-2</v>
       </c>
       <c r="F88" s="7">
@@ -3399,11 +3429,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G88" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.6879518072289161E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3417,7 +3447,7 @@
         <v>166</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.0120481927710843E-2</v>
       </c>
       <c r="F89" s="7">
@@ -3425,11 +3455,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G89" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.787951807228916E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>10</v>
       </c>
@@ -3443,7 +3473,7 @@
         <v>166</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.614457831325301E-2</v>
       </c>
       <c r="F90" s="7">
@@ -3451,11 +3481,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G90" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.4855421686746986E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>10</v>
       </c>
@@ -3469,7 +3499,7 @@
         <v>166</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.0120481927710843E-2</v>
       </c>
       <c r="F91" s="7">
@@ -3477,11 +3507,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G91" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.5879518072289156E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="13" t="s">
         <v>11</v>
       </c>
@@ -3496,7 +3526,7 @@
         <v>155</v>
       </c>
       <c r="E92" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="F92" s="15">
@@ -3504,11 +3534,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G92" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.519354838709677E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="17" t="s">
         <v>11</v>
       </c>
@@ -3522,7 +3552,7 @@
         <v>155</v>
       </c>
       <c r="E93" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19354838709677419</v>
       </c>
       <c r="F93" s="19">
@@ -3530,11 +3560,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G93" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7548387096774198E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="17" t="s">
         <v>11</v>
       </c>
@@ -3548,7 +3578,7 @@
         <v>155</v>
       </c>
       <c r="E94" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12903225806451613</v>
       </c>
       <c r="F94" s="19">
@@ -3556,11 +3586,11 @@
         <v>0.125</v>
       </c>
       <c r="G94" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.0322580645161255E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="17" t="s">
         <v>11</v>
       </c>
@@ -3574,7 +3604,7 @@
         <v>155</v>
       </c>
       <c r="E95" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10967741935483871</v>
       </c>
       <c r="F95" s="19">
@@ -3582,11 +3612,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G95" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2677419354838709E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="17" t="s">
         <v>11</v>
       </c>
@@ -3600,7 +3630,7 @@
         <v>155</v>
       </c>
       <c r="E96" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.0322580645161285E-2</v>
       </c>
       <c r="F96" s="19">
@@ -3608,11 +3638,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G96" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1322580645161284E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="17" t="s">
         <v>11</v>
       </c>
@@ -3626,7 +3656,7 @@
         <v>155</v>
       </c>
       <c r="E97" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="F97" s="19">
@@ -3634,11 +3664,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G97" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.4838709677419413E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="17" t="s">
         <v>11</v>
       </c>
@@ -3652,7 +3682,7 @@
         <v>155</v>
       </c>
       <c r="E98" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="F98" s="19">
@@ -3660,11 +3690,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G98" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.8774193548387091E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="17" t="s">
         <v>11</v>
       </c>
@@ -3678,7 +3708,7 @@
         <v>155</v>
       </c>
       <c r="E99" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.870967741935484E-2</v>
       </c>
       <c r="F99" s="19">
@@ -3686,11 +3716,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G99" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.2290322580645156E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="21" t="s">
         <v>11</v>
       </c>
@@ -3704,7 +3734,7 @@
         <v>155</v>
       </c>
       <c r="E100" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.1612903225806452E-2</v>
       </c>
       <c r="F100" s="23">
@@ -3712,11 +3742,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G100" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.6129032258064523E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>12</v>
       </c>
@@ -3731,7 +3761,7 @@
         <v>207</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.53623188405797106</v>
       </c>
       <c r="F101" s="7">
@@ -3739,11 +3769,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G101" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.23523188405797107</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>12</v>
       </c>
@@ -3757,7 +3787,7 @@
         <v>207</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.6618357487922704E-2</v>
       </c>
       <c r="F102" s="7">
@@ -3765,11 +3795,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G102" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.9381642512077286E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>12</v>
       </c>
@@ -3783,7 +3813,7 @@
         <v>207</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" ref="E103:E164" si="4">(C103/D103)</f>
+        <f t="shared" ref="E103:E154" si="8">(C103/D103)</f>
         <v>1.932367149758454E-2</v>
       </c>
       <c r="F103" s="7">
@@ -3791,11 +3821,11 @@
         <v>0.125</v>
       </c>
       <c r="G103" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-0.10567632850241546</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>12</v>
       </c>
@@ -3809,7 +3839,7 @@
         <v>207</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="F104" s="7">
@@ -3817,11 +3847,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G104" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.3521739130434787E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3865,7 @@
         <v>207</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.280193236714976E-2</v>
       </c>
       <c r="F105" s="7">
@@ -3843,11 +3873,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G105" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.6198067632850241E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>12</v>
       </c>
@@ -3861,7 +3891,7 @@
         <v>207</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.7632850241545889E-2</v>
       </c>
       <c r="F106" s="7">
@@ -3869,11 +3899,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G106" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.3285024154588476E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3917,7 @@
         <v>207</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.2125603864734303E-2</v>
       </c>
       <c r="F107" s="7">
@@ -3895,11 +3925,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G107" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.41256038647343E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
         <v>12</v>
       </c>
@@ -3913,7 +3943,7 @@
         <v>207</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="F108" s="7">
@@ -3921,11 +3951,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G108" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-7.5217391304347805E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="9" t="s">
         <v>12</v>
       </c>
@@ -3939,7 +3969,7 @@
         <v>207</v>
       </c>
       <c r="E109" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.8309178743961352E-2</v>
       </c>
       <c r="F109" s="11">
@@ -3947,11 +3977,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G109" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.3091787439613529E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="13" t="s">
         <v>13</v>
       </c>
@@ -3966,7 +3996,7 @@
         <v>172</v>
       </c>
       <c r="E110" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30232558139534882</v>
       </c>
       <c r="F110" s="15">
@@ -3974,11 +4004,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G110" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.3255813953488293E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="17" t="s">
         <v>13</v>
       </c>
@@ -3992,7 +4022,7 @@
         <v>172</v>
       </c>
       <c r="E111" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30813953488372092</v>
       </c>
       <c r="F111" s="19">
@@ -4000,11 +4030,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G111" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.13213953488372093</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="17" t="s">
         <v>13</v>
       </c>
@@ -4018,7 +4048,7 @@
         <v>172</v>
       </c>
       <c r="E112" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15697674418604651</v>
       </c>
       <c r="F112" s="19">
@@ -4026,11 +4056,11 @@
         <v>0.125</v>
       </c>
       <c r="G112" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1976744186046513E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="17" t="s">
         <v>13</v>
       </c>
@@ -4044,7 +4074,7 @@
         <v>172</v>
       </c>
       <c r="E113" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.9767441860465115E-2</v>
       </c>
       <c r="F113" s="19">
@@ -4052,11 +4082,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G113" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.7232558139534888E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="17" t="s">
         <v>13</v>
       </c>
@@ -4070,7 +4100,7 @@
         <v>172</v>
       </c>
       <c r="E114" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.9069767441860465E-2</v>
       </c>
       <c r="F114" s="19">
@@ -4078,11 +4108,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G114" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.993023255813954E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="17" t="s">
         <v>13</v>
       </c>
@@ -4096,7 +4126,7 @@
         <v>172</v>
       </c>
       <c r="E115" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.4883720930232558E-2</v>
       </c>
       <c r="F115" s="19">
@@ -4104,11 +4134,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G115" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.2116279069767446E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="17" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4152,7 @@
         <v>172</v>
       </c>
       <c r="E116" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.9069767441860465E-2</v>
       </c>
       <c r="F116" s="19">
@@ -4130,11 +4160,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G116" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.8930232558139538E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="17" t="s">
         <v>13</v>
       </c>
@@ -4148,7 +4178,7 @@
         <v>172</v>
       </c>
       <c r="E117" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.3255813953488372E-2</v>
       </c>
       <c r="F117" s="19">
@@ -4156,11 +4186,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G117" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.7744186046511625E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="21" t="s">
         <v>13</v>
       </c>
@@ -4174,7 +4204,7 @@
         <v>172</v>
       </c>
       <c r="E118" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="F118" s="23">
@@ -4182,11 +4212,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G118" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.1162790697674432E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -4201,7 +4231,7 @@
         <v>172</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.61627906976744184</v>
       </c>
       <c r="F119" s="3">
@@ -4209,11 +4239,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G119" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.31527906976744186</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>14</v>
       </c>
@@ -4227,7 +4257,7 @@
         <v>172</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.232558139534884E-2</v>
       </c>
       <c r="F120" s="7">
@@ -4235,11 +4265,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G120" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-0.12367441860465114</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
         <v>14</v>
       </c>
@@ -4253,7 +4283,7 @@
         <v>172</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="F121" s="7">
@@ -4261,11 +4291,11 @@
         <v>0.125</v>
       </c>
       <c r="G121" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-0.11918604651162791</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
         <v>14</v>
       </c>
@@ -4279,7 +4309,7 @@
         <v>172</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="F122" s="7">
@@ -4287,11 +4317,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G122" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.0488372093023259E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="5" t="s">
         <v>14</v>
       </c>
@@ -4305,7 +4335,7 @@
         <v>172</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.0697674418604654E-2</v>
       </c>
       <c r="F123" s="7">
@@ -4313,11 +4343,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G123" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.8302325581395347E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
         <v>14</v>
       </c>
@@ -4331,7 +4361,7 @@
         <v>172</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="F124" s="7">
@@ -4339,11 +4369,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G124" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.048837209302326E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="5" t="s">
         <v>14</v>
       </c>
@@ -4357,7 +4387,7 @@
         <v>172</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.232558139534884E-2</v>
       </c>
       <c r="F125" s="7">
@@ -4365,11 +4395,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G125" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.674418604651163E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
         <v>14</v>
       </c>
@@ -4383,7 +4413,7 @@
         <v>172</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.0697674418604654E-2</v>
       </c>
       <c r="F126" s="7">
@@ -4391,11 +4421,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G126" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-1.0302325581395343E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="9" t="s">
         <v>14</v>
       </c>
@@ -4409,7 +4439,7 @@
         <v>172</v>
       </c>
       <c r="E127" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.8837209302325577E-2</v>
       </c>
       <c r="F127" s="11">
@@ -4417,11 +4447,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G127" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.2837209302325577E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="13" t="s">
         <v>15</v>
       </c>
@@ -4436,7 +4466,7 @@
         <v>161</v>
       </c>
       <c r="E128" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.39751552795031053</v>
       </c>
       <c r="F128" s="15">
@@ -4444,11 +4474,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G128" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6515527950310542E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="17" t="s">
         <v>15</v>
       </c>
@@ -4462,7 +4492,7 @@
         <v>161</v>
       </c>
       <c r="E129" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.16770186335403728</v>
       </c>
       <c r="F129" s="19">
@@ -4470,11 +4500,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G129" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-8.2981366459627115E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="17" t="s">
         <v>15</v>
       </c>
@@ -4488,7 +4518,7 @@
         <v>161</v>
       </c>
       <c r="E130" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.0745341614906832E-2</v>
       </c>
       <c r="F130" s="19">
@@ -4496,11 +4526,11 @@
         <v>0.125</v>
       </c>
       <c r="G130" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.4254658385093168E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="17" t="s">
         <v>15</v>
       </c>
@@ -4514,7 +4544,7 @@
         <v>161</v>
       </c>
       <c r="E131" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.3167701863354033E-2</v>
       </c>
       <c r="F131" s="19">
@@ -4522,11 +4552,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G131" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.8322981366459702E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="17" t="s">
         <v>15</v>
       </c>
@@ -4540,7 +4570,7 @@
         <v>161</v>
       </c>
       <c r="E132" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5900621118012424E-2</v>
       </c>
       <c r="F132" s="19">
@@ -4548,11 +4578,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G132" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.3099378881987577E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="17" t="s">
         <v>15</v>
       </c>
@@ -4566,7 +4596,7 @@
         <v>161</v>
       </c>
       <c r="E133" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.1055900621118012E-2</v>
       </c>
       <c r="F133" s="19">
@@ -4574,11 +4604,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G133" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-3.5944099378881988E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="17" t="s">
         <v>15</v>
       </c>
@@ -4592,7 +4622,7 @@
         <v>161</v>
       </c>
       <c r="E134" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8322981366459631E-2</v>
       </c>
       <c r="F134" s="19">
@@ -4600,11 +4630,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G134" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0322981366459628E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="17" t="s">
         <v>15</v>
       </c>
@@ -4618,7 +4648,7 @@
         <v>161</v>
       </c>
       <c r="E135" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.8322981366459631E-2</v>
       </c>
       <c r="F135" s="19">
@@ -4626,11 +4656,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G135" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.7322981366459635E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="21" t="s">
         <v>15</v>
       </c>
@@ -4644,7 +4674,7 @@
         <v>161</v>
       </c>
       <c r="E136" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.7267080745341616E-2</v>
       </c>
       <c r="F136" s="23">
@@ -4652,11 +4682,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G136" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-8.7329192546583834E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
@@ -4671,7 +4701,7 @@
         <v>175</v>
       </c>
       <c r="E137" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.24</v>
       </c>
       <c r="F137" s="3">
@@ -4679,11 +4709,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G137" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>16</v>
       </c>
@@ -4697,7 +4727,7 @@
         <v>175</v>
       </c>
       <c r="E138" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.12571428571428572</v>
       </c>
       <c r="F138" s="7">
@@ -4705,11 +4735,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G138" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-5.0285714285714267E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>16</v>
       </c>
@@ -4723,7 +4753,7 @@
         <v>175</v>
       </c>
       <c r="E139" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.08</v>
       </c>
       <c r="F139" s="7">
@@ -4731,11 +4761,11 @@
         <v>0.125</v>
       </c>
       <c r="G139" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="5" t="s">
         <v>16</v>
       </c>
@@ -4749,7 +4779,7 @@
         <v>175</v>
       </c>
       <c r="E140" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.12571428571428572</v>
       </c>
       <c r="F140" s="7">
@@ -4757,11 +4787,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G140" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.871428571428572E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="5" t="s">
         <v>16</v>
       </c>
@@ -4775,7 +4805,7 @@
         <v>175</v>
       </c>
       <c r="E141" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.1428571428571428E-2</v>
       </c>
       <c r="F141" s="7">
@@ -4783,11 +4813,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G141" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2428571428571428E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="5" t="s">
         <v>16</v>
       </c>
@@ -4801,7 +4831,7 @@
         <v>175</v>
       </c>
       <c r="E142" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.10285714285714286</v>
       </c>
       <c r="F142" s="7">
@@ -4809,11 +4839,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G142" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.5857142857142851E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="5" t="s">
         <v>16</v>
       </c>
@@ -4827,7 +4857,7 @@
         <v>175</v>
       </c>
       <c r="E143" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.08</v>
       </c>
       <c r="F143" s="7">
@@ -4835,11 +4865,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G143" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="5" t="s">
         <v>16</v>
       </c>
@@ -4853,7 +4883,7 @@
         <v>175</v>
       </c>
       <c r="E144" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="F144" s="7">
@@ -4861,11 +4891,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G144" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.1428571428571443E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="9" t="s">
         <v>16</v>
       </c>
@@ -4879,7 +4909,7 @@
         <v>175</v>
       </c>
       <c r="E145" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.7142857142857142E-2</v>
       </c>
       <c r="F145" s="11">
@@ -4887,11 +4917,11 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G145" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.1142857142857143E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="13" t="s">
         <v>17</v>
       </c>
@@ -4906,7 +4936,7 @@
         <v>178</v>
       </c>
       <c r="E146" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37640449438202245</v>
       </c>
       <c r="F146" s="15">
@@ -4914,11 +4944,11 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="G146" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.5404494382022458E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="17" t="s">
         <v>17</v>
       </c>
@@ -4932,7 +4962,7 @@
         <v>178</v>
       </c>
       <c r="E147" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1797752808988764</v>
       </c>
       <c r="F147" s="19">
@@ -4940,11 +4970,11 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="G147" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.7752808988764097E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="17" t="s">
         <v>17</v>
       </c>
@@ -4958,7 +4988,7 @@
         <v>178</v>
       </c>
       <c r="E148" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.5505617977528087E-2</v>
       </c>
       <c r="F148" s="19">
@@ -4966,11 +4996,11 @@
         <v>0.125</v>
       </c>
       <c r="G148" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-2.9494382022471913E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="17" t="s">
         <v>17</v>
       </c>
@@ -4984,7 +5014,7 @@
         <v>178</v>
       </c>
       <c r="E149" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.4269662921348312E-2</v>
       </c>
       <c r="F149" s="19">
@@ -4992,11 +5022,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="G149" s="20">
-        <f t="shared" ref="G149:G163" si="5">(E149-F149)</f>
+        <f t="shared" ref="G149:G154" si="9">(E149-F149)</f>
         <v>-1.2730337078651691E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="17" t="s">
         <v>17</v>
       </c>
@@ -5010,7 +5040,7 @@
         <v>178</v>
       </c>
       <c r="E150" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.741573033707865E-2</v>
       </c>
       <c r="F150" s="19">
@@ -5018,11 +5048,11 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="G150" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.1584269662921351E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="17" t="s">
         <v>17</v>
       </c>
@@ -5036,7 +5066,7 @@
         <v>178</v>
       </c>
       <c r="E151" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.3707865168539325E-2</v>
       </c>
       <c r="F151" s="19">
@@ -5044,11 +5074,11 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G151" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.3292134831460679E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="17" t="s">
         <v>17</v>
       </c>
@@ -5062,7 +5092,7 @@
         <v>178</v>
       </c>
       <c r="E152" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="F152" s="19">
@@ -5070,11 +5100,11 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G152" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8202247191011281E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="17" t="s">
         <v>17</v>
       </c>
@@ -5088,7 +5118,7 @@
         <v>178</v>
       </c>
       <c r="E153" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.6179775280898875E-2</v>
       </c>
       <c r="F153" s="19">
@@ -5096,11 +5126,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G153" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.1797752808988781E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="21" t="s">
         <v>17</v>
       </c>
@@ -5114,7 +5144,7 @@
         <v>178</v>
       </c>
       <c r="E154" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.0561797752808987E-2</v>
       </c>
       <c r="F154" s="23">
@@ -5122,17 +5152,19 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="G154" s="24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.5617977528089881E-3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G164:G1048576 G2:G154">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notBetween">
+      <formula>-0.1</formula>
+      <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>-0.05</formula>
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
